--- a/ms/final model output and tables/Supplementary_models_S7-S12.xlsx
+++ b/ms/final model output and tables/Supplementary_models_S7-S12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_meta/ms/final model output and tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DB911A-4304-A94D-8AF5-73F3C6AC2165}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAE4398-BFE6-1843-9748-A19A3CFC893B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38300" windowHeight="19820" xr2:uid="{CEA959A6-D841-5347-BF8F-13749A5754E5}"/>
+    <workbookView xWindow="1680" yWindow="460" windowWidth="38300" windowHeight="19760" activeTab="1" xr2:uid="{CEA959A6-D841-5347-BF8F-13749A5754E5}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="7" r:id="rId1"/>
@@ -237,15 +237,6 @@
     <t>-0.99, 0.46</t>
   </si>
   <si>
-    <t>p=0.93</t>
-  </si>
-  <si>
-    <t>-0.75, 0.40</t>
-  </si>
-  <si>
-    <t>-0.53, 0.48</t>
-  </si>
-  <si>
     <t>p=0.90</t>
   </si>
   <si>
@@ -868,6 +859,15 @@
   </si>
   <si>
     <t>Here we include the same random effects as the intercept only models: study_ID (between study variance), phylo (phylogenetic variance) and obs (observation-level random effect - within study variance )</t>
+  </si>
+  <si>
+    <t>p=0.94</t>
+  </si>
+  <si>
+    <t>-0.75, 0.39</t>
+  </si>
+  <si>
+    <t>-0.52, 0.48</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997D318C-6FE4-1349-B40F-3ACEE7BB8369}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1345,77 +1345,77 @@
   <sheetData>
     <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -1427,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9948B2D6-0D24-AC4F-B3C7-22D23935FFEB}">
   <dimension ref="A1:AN60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1443,23 +1443,23 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -1536,7 +1536,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2400.7800000000002</v>
+        <v>2749.45</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1758,10 +1758,10 @@
         <v>0.01</v>
       </c>
       <c r="C11">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="D11" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="4"/>
       <c r="I11" t="s">
@@ -1887,7 +1887,7 @@
         <v>0.41</v>
       </c>
       <c r="D13">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
@@ -2113,19 +2113,19 @@
         <v>55</v>
       </c>
       <c r="D16">
-        <v>-0.6</v>
+        <v>-0.59</v>
       </c>
       <c r="E16">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F16" s="31">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G16" s="31">
         <v>74</v>
       </c>
       <c r="H16" s="31">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I16" t="s">
         <v>40</v>
@@ -2229,7 +2229,7 @@
         <v>54</v>
       </c>
       <c r="B17" s="13">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>56</v>
@@ -2368,7 +2368,7 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>3698.36</v>
+        <v>3775.07</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -2418,7 +2418,7 @@
         <v>0.01</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>276</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>8</v>
@@ -2427,7 +2427,7 @@
         <v>0.02</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>8</v>
@@ -2436,7 +2436,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Y20" s="5" t="s">
         <v>8</v>
@@ -2589,10 +2589,10 @@
         <v>0.01</v>
       </c>
       <c r="C23">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="D23" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -2648,7 +2648,7 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="C24">
         <v>0.66</v>
@@ -2717,7 +2717,7 @@
         <v>0.65</v>
       </c>
       <c r="D25">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="I25" t="s">
         <v>15</v>
@@ -2940,7 +2940,7 @@
         <v>-0.18</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>69</v>
+        <v>277</v>
       </c>
       <c r="D28" s="7">
         <v>-0.61</v>
@@ -2949,13 +2949,13 @@
         <v>0.54</v>
       </c>
       <c r="F28" s="31">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G28" s="31">
         <v>74</v>
       </c>
       <c r="H28" s="31">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I28" t="s">
         <v>40</v>
@@ -2964,7 +2964,7 @@
         <v>-0.04</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L28" s="26">
         <v>-0.64</v>
@@ -2988,7 +2988,7 @@
         <v>0.04</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T28">
         <v>0.26</v>
@@ -3012,7 +3012,7 @@
         <v>0.03</v>
       </c>
       <c r="AA28" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AB28" s="7">
         <v>0.22</v>
@@ -3036,7 +3036,7 @@
         <v>-0.03</v>
       </c>
       <c r="AI28" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AJ28" s="7">
         <v>-0.14000000000000001</v>
@@ -3062,13 +3062,13 @@
         <v>-0.02</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>70</v>
+        <v>278</v>
       </c>
       <c r="D29" s="15">
         <v>-0.08</v>
       </c>
       <c r="E29" s="15">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="F29" s="13">
         <v>111</v>
@@ -3086,7 +3086,7 @@
         <v>0.01</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L29" s="13">
         <v>0.12</v>
@@ -3110,7 +3110,7 @@
         <v>-0.06</v>
       </c>
       <c r="S29" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="T29" s="15">
         <v>-0.37</v>
@@ -3158,7 +3158,7 @@
         <v>0.03</v>
       </c>
       <c r="AI29" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AJ29" s="15">
         <v>0.14000000000000001</v>
@@ -3303,23 +3303,23 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>8</v>
@@ -3464,7 +3464,7 @@
         <v>0.03</v>
       </c>
       <c r="S8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Y8" s="5" t="s">
         <v>8</v>
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AG8" s="5" t="s">
         <v>8</v>
@@ -3482,7 +3482,7 @@
         <v>0.02</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
@@ -3969,7 +3969,7 @@
         <v>-0.13</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D16">
         <v>-1.1000000000000001</v>
@@ -3993,7 +3993,7 @@
         <v>-0.05</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L16" s="28">
         <v>-0.3</v>
@@ -4017,7 +4017,7 @@
         <v>0.24</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="T16" s="4">
         <v>1.74</v>
@@ -4065,7 +4065,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AI16" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AJ16" s="28">
         <v>0.87</v>
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D17" s="13">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>0.26</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L17" s="13">
         <v>1.08</v>
@@ -4139,7 +4139,7 @@
         <v>-0.03</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T17" s="15">
         <v>-0.18</v>
@@ -4163,7 +4163,7 @@
         <v>-0.09</v>
       </c>
       <c r="AA17" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AB17" s="13">
         <v>-1</v>
@@ -4187,7 +4187,7 @@
         <v>-0.05</v>
       </c>
       <c r="AI17" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AJ17" s="15">
         <v>-0.16</v>
@@ -4266,7 +4266,7 @@
         <v>77.59</v>
       </c>
       <c r="AI19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
@@ -4277,7 +4277,7 @@
         <v>0.08</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>8</v>
@@ -4295,7 +4295,7 @@
         <v>0.06</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Y20" s="5" t="s">
         <v>8</v>
@@ -4304,7 +4304,7 @@
         <v>2</v>
       </c>
       <c r="AA20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AG20" s="5" t="s">
         <v>8</v>
@@ -4313,7 +4313,7 @@
         <v>0.15</v>
       </c>
       <c r="AI20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -4799,7 +4799,7 @@
         <v>-0.15</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D28" s="7">
         <v>-0.56000000000000005</v>
@@ -4823,7 +4823,7 @@
         <v>-0.04</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L28" s="26">
         <v>-1.38</v>
@@ -4847,7 +4847,7 @@
         <v>-0.02</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="T28">
         <v>-0.39</v>
@@ -4871,7 +4871,7 @@
         <v>0.09</v>
       </c>
       <c r="AA28" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AB28" s="7">
         <v>0.76</v>
@@ -4895,7 +4895,7 @@
         <v>0.06</v>
       </c>
       <c r="AI28" s="17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AJ28" s="7">
         <v>1.1399999999999999</v>
@@ -4921,7 +4921,7 @@
         <v>-0.03</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D29" s="13">
         <v>-0.28999999999999998</v>
@@ -4945,7 +4945,7 @@
         <v>-0.08</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L29" s="13">
         <v>-0.37</v>
@@ -4969,7 +4969,7 @@
         <v>-0.02</v>
       </c>
       <c r="S29" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T29" s="15">
         <v>-0.24</v>
@@ -4993,7 +4993,7 @@
         <v>-0.09</v>
       </c>
       <c r="AA29" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AB29" s="15">
         <v>-1.41</v>
@@ -5017,7 +5017,7 @@
         <v>-0.08</v>
       </c>
       <c r="AI29" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AJ29" s="15">
         <v>-0.39</v>
@@ -5510,23 +5510,23 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5653,7 +5653,7 @@
         <v>0.1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>8</v>
@@ -5689,7 +5689,7 @@
         <v>0.1</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
@@ -6200,7 +6200,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L16">
         <v>-0.4</v>
@@ -6224,7 +6224,7 @@
         <v>0.15</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="T16">
         <v>0.76</v>
@@ -6248,7 +6248,7 @@
         <v>0.16</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AB16" s="5">
         <v>1</v>
@@ -6272,7 +6272,7 @@
         <v>0.08</v>
       </c>
       <c r="AI16" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AJ16">
         <v>0.92</v>
@@ -6292,13 +6292,13 @@
     </row>
     <row r="17" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B17" s="13">
         <v>0.08</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D17" s="13">
         <v>0.32</v>
@@ -6316,13 +6316,13 @@
         <v>16</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J17" s="13">
         <v>0.05</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L17" s="13">
         <v>0.6</v>
@@ -6340,13 +6340,13 @@
         <v>28</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="R17" s="15">
         <v>0.18</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="T17" s="15">
         <v>0.64</v>
@@ -6364,13 +6364,13 @@
         <v>21</v>
       </c>
       <c r="Y17" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Z17" s="13">
         <v>-0.16</v>
       </c>
       <c r="AA17" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AB17" s="13">
         <v>-1.48</v>
@@ -6388,13 +6388,13 @@
         <v>38</v>
       </c>
       <c r="AG17" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AH17" s="15">
         <v>-0.05</v>
       </c>
       <c r="AI17" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AJ17" s="15">
         <v>-0.32</v>
@@ -6473,7 +6473,7 @@
         <v>77.27</v>
       </c>
       <c r="AI19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
@@ -6493,7 +6493,7 @@
         <v>2.39</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>8</v>
@@ -6502,7 +6502,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Y20" s="5" t="s">
         <v>8</v>
@@ -7006,7 +7006,7 @@
         <v>-0.11</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D28" s="7">
         <v>-0.9</v>
@@ -7030,7 +7030,7 @@
         <v>-0.09</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L28" s="18">
         <v>-2.11</v>
@@ -7054,7 +7054,7 @@
         <v>0.01</v>
       </c>
       <c r="S28" s="27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="T28" s="26">
         <v>0.1</v>
@@ -7078,7 +7078,7 @@
         <v>0.11</v>
       </c>
       <c r="AA28" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AB28" s="7">
         <v>0.73</v>
@@ -7102,7 +7102,7 @@
         <v>0.06</v>
       </c>
       <c r="AI28" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AJ28" s="7">
         <v>1.18</v>
@@ -7122,13 +7122,13 @@
     </row>
     <row r="29" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B29" s="13">
         <v>0.15</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D29" s="13">
         <v>0.74</v>
@@ -7146,13 +7146,13 @@
         <v>16</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J29" s="13">
         <v>0.08</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L29" s="13">
         <v>1.55</v>
@@ -7170,13 +7170,13 @@
         <v>28</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="R29" s="13">
         <v>-0.04</v>
       </c>
       <c r="S29" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="T29" s="13">
         <v>-0.54</v>
@@ -7194,13 +7194,13 @@
         <v>21</v>
       </c>
       <c r="Y29" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Z29" s="15">
         <v>-0.09</v>
       </c>
       <c r="AA29" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AB29" s="15">
         <v>-1.1399999999999999</v>
@@ -7218,13 +7218,13 @@
         <v>38</v>
       </c>
       <c r="AG29" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AH29" s="15">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AI29" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AJ29" s="15">
         <v>-0.65</v>
@@ -7268,23 +7268,23 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7420,7 +7420,7 @@
         <v>0.15</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>8</v>
@@ -7441,7 +7441,7 @@
         <v>28</v>
       </c>
       <c r="AB8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AG8" s="5" t="s">
         <v>8</v>
@@ -7937,7 +7937,7 @@
         <v>-0.12</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D16">
         <v>-0.85</v>
@@ -7961,7 +7961,7 @@
         <v>-0.06</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L16">
         <v>-0.35</v>
@@ -7985,7 +7985,7 @@
         <v>0.31</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="T16">
         <v>1.2</v>
@@ -8009,7 +8009,7 @@
         <v>0.24</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AB16" s="5">
         <v>1.44</v>
@@ -8033,7 +8033,7 @@
         <v>-0.28999999999999998</v>
       </c>
       <c r="AI16" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AJ16">
         <v>-1.24</v>
@@ -8053,13 +8053,13 @@
     </row>
     <row r="17" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B17" s="13">
         <v>-0.02</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D17" s="13">
         <v>-0.14000000000000001</v>
@@ -8077,13 +8077,13 @@
         <v>22</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J17" s="13">
         <v>0.06</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L17" s="13">
         <v>0.39</v>
@@ -8101,13 +8101,13 @@
         <v>39</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R17" s="15">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="T17" s="15">
         <v>-0.31</v>
@@ -8125,13 +8125,13 @@
         <v>44</v>
       </c>
       <c r="Y17" s="29" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Z17" s="29">
         <v>-0.31</v>
       </c>
       <c r="AA17" s="30" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AB17" s="29">
         <v>-2.34</v>
@@ -8149,13 +8149,13 @@
         <v>40</v>
       </c>
       <c r="AG17" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AH17" s="13">
         <v>0.42</v>
       </c>
       <c r="AI17" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AJ17" s="13">
         <v>1.7</v>
@@ -8234,7 +8234,7 @@
         <v>77.55</v>
       </c>
       <c r="AI19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
@@ -8263,7 +8263,7 @@
         <v>0.23</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Y20" s="5" t="s">
         <v>8</v>
@@ -8272,7 +8272,7 @@
         <v>0.6</v>
       </c>
       <c r="AA20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AG20" s="5" t="s">
         <v>8</v>
@@ -8281,7 +8281,7 @@
         <v>0.23</v>
       </c>
       <c r="AI20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -8767,7 +8767,7 @@
         <v>-0.13</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D28" s="7">
         <v>-1.05</v>
@@ -8791,7 +8791,7 @@
         <v>-0.1</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L28" s="26">
         <v>-1.18</v>
@@ -8815,7 +8815,7 @@
         <v>-0.08</v>
       </c>
       <c r="S28" s="27" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="T28" s="26">
         <v>-0.57999999999999996</v>
@@ -8839,7 +8839,7 @@
         <v>0.11</v>
       </c>
       <c r="AA28" s="17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AB28" s="7">
         <v>0.73</v>
@@ -8863,7 +8863,7 @@
         <v>-0.01</v>
       </c>
       <c r="AI28" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AJ28" s="7">
         <v>-7.0000000000000007E-2</v>
@@ -8883,13 +8883,13 @@
     </row>
     <row r="29" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B29" s="13">
         <v>0.16</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D29" s="13">
         <v>0.93</v>
@@ -8907,13 +8907,13 @@
         <v>22</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J29" s="13">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L29" s="13">
         <v>0.75</v>
@@ -8931,13 +8931,13 @@
         <v>39</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R29" s="13">
         <v>0.06</v>
       </c>
       <c r="S29" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T29" s="13">
         <v>0.47</v>
@@ -8955,13 +8955,13 @@
         <v>44</v>
       </c>
       <c r="Y29" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Z29" s="15">
         <v>-0.08</v>
       </c>
       <c r="AA29" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AB29" s="15">
         <v>-0.78</v>
@@ -8979,13 +8979,13 @@
         <v>40</v>
       </c>
       <c r="AG29" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AH29" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AI29" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AJ29" s="15">
         <v>0.48</v>
@@ -9036,23 +9036,23 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9185,7 +9185,7 @@
         <v>1.38</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>8</v>
@@ -9200,10 +9200,10 @@
         <v>8.57</v>
       </c>
       <c r="AA8" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB8" t="s">
         <v>155</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>158</v>
       </c>
       <c r="AG8" s="5" t="s">
         <v>8</v>
@@ -9699,7 +9699,7 @@
         <v>-0.04</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D16">
         <v>-0.25</v>
@@ -9723,7 +9723,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L16" s="28">
         <v>-0.41</v>
@@ -9771,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AB16" s="5">
         <v>0.03</v>
@@ -9795,7 +9795,7 @@
         <v>0.13</v>
       </c>
       <c r="AI16" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AJ16" s="28">
         <v>1.1399999999999999</v>
@@ -9815,13 +9815,13 @@
     </row>
     <row r="17" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B17" s="13">
         <v>-0.26</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D17" s="13">
         <v>-1.07</v>
@@ -9839,13 +9839,13 @@
         <v>94</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J17" s="13">
         <v>0.19</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L17" s="13">
         <v>1.17</v>
@@ -9863,7 +9863,7 @@
         <v>3</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R17" s="15" t="s">
         <v>29</v>
@@ -9887,13 +9887,13 @@
         <v>29</v>
       </c>
       <c r="Y17" s="29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Z17" s="29">
         <v>0.39</v>
       </c>
       <c r="AA17" s="30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AB17" s="29">
         <v>2.93</v>
@@ -9911,13 +9911,13 @@
         <v>12</v>
       </c>
       <c r="AG17" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AH17" s="13">
         <v>-0.42</v>
       </c>
       <c r="AI17" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AJ17" s="13">
         <v>-1.7</v>
@@ -9993,7 +9993,7 @@
         <v>77.55</v>
       </c>
       <c r="AI19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
@@ -10038,7 +10038,7 @@
         <v>0.23</v>
       </c>
       <c r="AI20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -10524,7 +10524,7 @@
         <v>0.04</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D28" s="7">
         <v>0.33</v>
@@ -10548,7 +10548,7 @@
         <v>-0.04</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L28" s="26">
         <v>-1.31</v>
@@ -10620,7 +10620,7 @@
         <v>0.06</v>
       </c>
       <c r="AI28" s="17" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AJ28" s="7">
         <v>1.1499999999999999</v>
@@ -10640,13 +10640,13 @@
     </row>
     <row r="29" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B29" s="13">
         <v>-0.26</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D29" s="13">
         <v>-1.35</v>
@@ -10664,13 +10664,13 @@
         <v>94</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J29" s="13">
         <v>-0.01</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L29" s="13">
         <v>-0.1</v>
@@ -10688,7 +10688,7 @@
         <v>3</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R29" s="15" t="s">
         <v>29</v>
@@ -10712,13 +10712,13 @@
         <v>29</v>
       </c>
       <c r="Y29" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Z29" s="15">
         <v>0.08</v>
       </c>
       <c r="AA29" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AB29" s="15">
         <v>0.75</v>
@@ -10736,13 +10736,13 @@
         <v>12</v>
       </c>
       <c r="AG29" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AH29" s="15">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AI29" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AJ29" s="15">
         <v>-0.48</v>
@@ -10798,18 +10798,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -10926,10 +10926,10 @@
         <v>3.15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>8</v>
@@ -10938,10 +10938,10 @@
         <v>1.56</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>8</v>
@@ -10950,10 +10950,10 @@
         <v>3.71</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>8</v>
@@ -10962,10 +10962,10 @@
         <v>1.4</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>8</v>
@@ -10977,7 +10977,7 @@
         <v>27</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -11368,13 +11368,13 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B16">
         <v>-0.24</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D16">
         <v>-1.36</v>
@@ -11383,13 +11383,13 @@
         <v>0.18</v>
       </c>
       <c r="F16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G16">
         <v>-0.23</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I16">
         <v>-0.81</v>
@@ -11398,13 +11398,13 @@
         <v>0.42</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L16" s="4">
         <v>0.37</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N16" s="4">
         <v>1.99</v>
@@ -11413,13 +11413,13 @@
         <v>0.05</v>
       </c>
       <c r="P16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q16">
         <v>-0.04</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="S16">
         <v>-0.19</v>
@@ -11428,13 +11428,13 @@
         <v>0.85</v>
       </c>
       <c r="U16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="V16">
         <v>0.66</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="X16">
         <v>1.2</v>
@@ -11445,13 +11445,13 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B17">
         <v>-0.23</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D17">
         <v>-1.24</v>
@@ -11460,13 +11460,13 @@
         <v>0.22</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G17">
         <v>-0.11</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I17">
         <v>-0.43</v>
@@ -11475,13 +11475,13 @@
         <v>0.67</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L17" s="4">
         <v>0.76</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N17" s="4">
         <v>3.05</v>
@@ -11490,13 +11490,13 @@
         <v>2E-3</v>
       </c>
       <c r="P17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q17" s="5">
         <v>0.24</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="S17" s="5">
         <v>1.1599999999999999</v>
@@ -11505,13 +11505,13 @@
         <v>0.25</v>
       </c>
       <c r="U17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V17">
         <v>0.8</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="X17">
         <v>1.21</v>
@@ -11522,13 +11522,13 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B18">
         <v>-0.3</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D18">
         <v>-1.82</v>
@@ -11537,13 +11537,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G18">
         <v>-0.22</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I18">
         <v>-0.82</v>
@@ -11552,13 +11552,13 @@
         <v>0.41</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L18" s="4">
         <v>0.62</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N18" s="4">
         <v>3.35</v>
@@ -11567,13 +11567,13 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="P18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q18" s="5">
         <v>0.28000000000000003</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S18" s="5">
         <v>1.43</v>
@@ -11582,13 +11582,13 @@
         <v>0.15</v>
       </c>
       <c r="U18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="V18">
         <v>0.78</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="X18">
         <v>1.6</v>
@@ -11599,13 +11599,13 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B19">
         <v>-0.03</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D19">
         <v>-0.16</v>
@@ -11614,13 +11614,13 @@
         <v>0.88</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G19">
         <v>-0.11</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I19">
         <v>-0.4</v>
@@ -11629,13 +11629,13 @@
         <v>0.69</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L19">
         <v>0.37</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N19">
         <v>1.74</v>
@@ -11644,13 +11644,13 @@
         <v>0.08</v>
       </c>
       <c r="P19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q19" s="5">
         <v>0.18</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="S19" s="5">
         <v>0.9</v>
@@ -11659,13 +11659,13 @@
         <v>0.37</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="V19" s="5">
         <v>0.87</v>
       </c>
       <c r="W19" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="X19" s="5">
         <v>1.86</v>
@@ -11676,13 +11676,13 @@
     </row>
     <row r="20" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B20" s="22">
         <v>-0.79</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D20" s="22">
         <v>-3.04</v>
@@ -11691,13 +11691,13 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G20" s="20">
         <v>-0.47</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I20" s="20">
         <v>-1.64</v>
@@ -11706,13 +11706,13 @@
         <v>0.1</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L20" s="22">
         <v>0.62</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N20" s="22">
         <v>2.04</v>
@@ -11721,13 +11721,13 @@
         <v>0.04</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q20" s="20">
         <v>0.23</v>
       </c>
       <c r="R20" s="21" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="S20" s="20">
         <v>1.07</v>
@@ -11736,13 +11736,13 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="U20" s="24" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V20" s="24">
         <v>0.6</v>
       </c>
       <c r="W20" s="25" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="X20" s="24">
         <v>1.1399999999999999</v>
@@ -11753,13 +11753,13 @@
     </row>
     <row r="21" spans="1:25" s="15" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B21" s="15">
         <v>0.02</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D21" s="15">
         <v>1.1100000000000001</v>
@@ -11768,13 +11768,13 @@
         <v>0.27</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G21" s="15">
         <v>0.02</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I21" s="15">
         <v>0.55000000000000004</v>
@@ -11783,13 +11783,13 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L21" s="29">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N21" s="29">
         <v>-2.9</v>
@@ -11798,13 +11798,13 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q21" s="15">
         <v>-0.03</v>
       </c>
       <c r="R21" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="S21" s="15">
         <v>-1.1200000000000001</v>
@@ -11813,13 +11813,13 @@
         <v>0.26</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="V21" s="15">
         <v>-0.23</v>
       </c>
       <c r="W21" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="X21" s="15">
         <v>-1.4</v>
@@ -11900,10 +11900,10 @@
         <v>1.03</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>8</v>
@@ -11912,10 +11912,10 @@
         <v>0.95</v>
       </c>
       <c r="H24" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>8</v>
@@ -11924,10 +11924,10 @@
         <v>0.72</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P24" s="5" t="s">
         <v>8</v>
@@ -11936,10 +11936,10 @@
         <v>0.23</v>
       </c>
       <c r="R24" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="U24" s="5" t="s">
         <v>8</v>
@@ -11948,10 +11948,10 @@
         <v>1.41</v>
       </c>
       <c r="W24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="X24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
@@ -12336,13 +12336,13 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B32" s="7">
         <v>-0.03</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D32" s="7">
         <v>-0.13</v>
@@ -12351,13 +12351,13 @@
         <v>0.89</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G32" s="7">
         <v>-0.01</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I32" s="7">
         <v>-0.05</v>
@@ -12366,13 +12366,13 @@
         <v>0.96</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L32" s="26">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="N32" s="26">
         <v>-0.94</v>
@@ -12381,13 +12381,13 @@
         <v>0.35</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q32" s="7">
         <v>0.14000000000000001</v>
       </c>
       <c r="R32" s="17" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="S32" s="7">
         <v>0.79</v>
@@ -12396,13 +12396,13 @@
         <v>0.43</v>
       </c>
       <c r="U32" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="V32" s="7">
         <v>0.67</v>
       </c>
       <c r="W32" s="17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="X32" s="7">
         <v>1.1100000000000001</v>
@@ -12413,13 +12413,13 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B33" s="24">
         <v>-0.13</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D33" s="24">
         <v>-0.61</v>
@@ -12428,13 +12428,13 @@
         <v>0.54</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G33" s="20">
         <v>-0.11</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I33" s="20">
         <v>-1.05</v>
@@ -12443,13 +12443,13 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L33" s="24">
         <v>0.01</v>
       </c>
       <c r="M33" s="25" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N33" s="24">
         <v>0.08</v>
@@ -12458,13 +12458,13 @@
         <v>0.93</v>
       </c>
       <c r="P33" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q33" s="24">
         <v>0.14000000000000001</v>
       </c>
       <c r="R33" s="25" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="S33" s="24">
         <v>0.79</v>
@@ -12473,13 +12473,13 @@
         <v>0.43</v>
       </c>
       <c r="U33" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V33" s="20">
         <v>1.3</v>
       </c>
       <c r="W33" s="21" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="X33" s="20">
         <v>1.78</v>
@@ -12490,13 +12490,13 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B34" s="24">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D34" s="24">
         <v>-0.44</v>
@@ -12505,13 +12505,13 @@
         <v>0.66</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G34" s="24">
         <v>0</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I34" s="24">
         <v>0.02</v>
@@ -12520,13 +12520,13 @@
         <v>0.99</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L34" s="24">
         <v>-0.03</v>
       </c>
       <c r="M34" s="25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="N34" s="24">
         <v>-0.43</v>
@@ -12535,13 +12535,13 @@
         <v>0.67</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q34" s="24">
         <v>0.09</v>
       </c>
       <c r="R34" s="25" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="S34" s="24">
         <v>0.56000000000000005</v>
@@ -12550,13 +12550,13 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="U34" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="V34" s="24">
         <v>0.8</v>
       </c>
       <c r="W34" s="25" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="X34" s="24">
         <v>1.51</v>
@@ -12567,13 +12567,13 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B35" s="20">
         <v>-0.32</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D35" s="20">
         <v>-1.82</v>
@@ -12582,13 +12582,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G35" s="24">
         <v>-0.01</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I35" s="24">
         <v>-0.13</v>
@@ -12597,13 +12597,13 @@
         <v>0.89</v>
       </c>
       <c r="K35" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L35" s="24">
         <v>0.04</v>
       </c>
       <c r="M35" s="25" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="N35" s="24">
         <v>0.45</v>
@@ -12612,13 +12612,13 @@
         <v>0.66</v>
       </c>
       <c r="P35" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q35" s="24">
         <v>0.08</v>
       </c>
       <c r="R35" s="25" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="S35" s="24">
         <v>0.47</v>
@@ -12627,13 +12627,13 @@
         <v>0.64</v>
       </c>
       <c r="U35" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="V35" s="24">
         <v>0.56999999999999995</v>
       </c>
       <c r="W35" s="25" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="X35" s="24">
         <v>1.1100000000000001</v>
@@ -12644,13 +12644,13 @@
     </row>
     <row r="36" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B36" s="24">
         <v>0.08</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D36" s="24">
         <v>0.27</v>
@@ -12659,13 +12659,13 @@
         <v>0.79</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G36" s="20">
         <v>0.09</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I36" s="20">
         <v>0.72</v>
@@ -12674,13 +12674,13 @@
         <v>0.47</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L36" s="24">
         <v>0.22</v>
       </c>
       <c r="M36" s="25" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="N36" s="24">
         <v>1.32</v>
@@ -12689,13 +12689,13 @@
         <v>0.19</v>
       </c>
       <c r="P36" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q36" s="24">
         <v>0.1</v>
       </c>
       <c r="R36" s="25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="S36" s="24">
         <v>0.54</v>
@@ -12704,13 +12704,13 @@
         <v>0.59</v>
       </c>
       <c r="U36" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V36" s="24">
         <v>0.47</v>
       </c>
       <c r="W36" s="25" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="X36" s="24">
         <v>0.86</v>
@@ -12721,13 +12721,13 @@
     </row>
     <row r="37" spans="1:25" s="15" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B37" s="15">
         <v>0.02</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D37" s="15">
         <v>0.53</v>
@@ -12736,13 +12736,13 @@
         <v>0.6</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G37" s="15">
         <v>-0.01</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I37" s="15">
         <v>-0.28000000000000003</v>
@@ -12751,13 +12751,13 @@
         <v>0.78</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L37" s="15">
         <v>0</v>
       </c>
       <c r="M37" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="N37" s="15">
         <v>0.16</v>
@@ -12766,13 +12766,13 @@
         <v>0.87</v>
       </c>
       <c r="P37" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q37" s="15">
         <v>-0.01</v>
       </c>
       <c r="R37" s="16" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="S37" s="15">
         <v>-0.4</v>
@@ -12781,13 +12781,13 @@
         <v>0.69</v>
       </c>
       <c r="U37" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="V37" s="15">
         <v>-0.25</v>
       </c>
       <c r="W37" s="16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="X37" s="15">
         <v>-1.36</v>

--- a/ms/final model output and tables/Supplementary_models_S7-S12.xlsx
+++ b/ms/final model output and tables/Supplementary_models_S7-S12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_meta/ms/final model output and tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAE4398-BFE6-1843-9748-A19A3CFC893B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1D457E-539F-FC42-B787-A1B4896D3D79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="460" windowWidth="38300" windowHeight="19760" activeTab="1" xr2:uid="{CEA959A6-D841-5347-BF8F-13749A5754E5}"/>
+    <workbookView xWindow="19240" yWindow="460" windowWidth="38300" windowHeight="19760" activeTab="6" xr2:uid="{CEA959A6-D841-5347-BF8F-13749A5754E5}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="S10 Study Enviro" sheetId="3" r:id="rId5"/>
     <sheet name="S11 Study type" sheetId="4" r:id="rId6"/>
     <sheet name="S12 Publication Bias" sheetId="6" r:id="rId7"/>
+    <sheet name="S13 Scores" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="276">
   <si>
     <t>Birds</t>
   </si>
@@ -99,18 +100,9 @@
     <t>lnCVR</t>
   </si>
   <si>
-    <t>p=0.18</t>
-  </si>
-  <si>
     <t>p=0.28</t>
   </si>
   <si>
-    <t>p=0.26</t>
-  </si>
-  <si>
-    <t>-0.45, 0.13</t>
-  </si>
-  <si>
     <t>-0.29, 0.49</t>
   </si>
   <si>
@@ -168,9 +160,6 @@
     <t>p=0.48</t>
   </si>
   <si>
-    <t>p=0.45</t>
-  </si>
-  <si>
     <t>p=0.09</t>
   </si>
   <si>
@@ -264,15 +253,9 @@
     <t>-0.39, 0.44</t>
   </si>
   <si>
-    <t>p=0.99</t>
-  </si>
-  <si>
     <t>-0.37, 0.10</t>
   </si>
   <si>
-    <t>-0.19, 0.19</t>
-  </si>
-  <si>
     <t>-0.37, 0.27</t>
   </si>
   <si>
@@ -288,12 +271,6 @@
     <t>-0.34, 0.28</t>
   </si>
   <si>
-    <t>p=0.31</t>
-  </si>
-  <si>
-    <t>-0.28, 0.09</t>
-  </si>
-  <si>
     <t>p=0.88</t>
   </si>
   <si>
@@ -303,15 +280,6 @@
     <t>-0.69, 0.59</t>
   </si>
   <si>
-    <t>p=0.77</t>
-  </si>
-  <si>
-    <t>-0.66, 0.37</t>
-  </si>
-  <si>
-    <t>-0.25, 0.19</t>
-  </si>
-  <si>
     <t>-0.09, 0.02</t>
   </si>
   <si>
@@ -330,12 +298,6 @@
     <t>p=0.16</t>
   </si>
   <si>
-    <t>-0.15, 0.34</t>
-  </si>
-  <si>
-    <t>-0.22, 0.04</t>
-  </si>
-  <si>
     <t>p=0.87</t>
   </si>
   <si>
@@ -354,9 +316,6 @@
     <t>p=0.75</t>
   </si>
   <si>
-    <t>-0.42, 0.58</t>
-  </si>
-  <si>
     <t>-0.40, 0.26</t>
   </si>
   <si>
@@ -369,18 +328,9 @@
     <t>-0.37, 0.73</t>
   </si>
   <si>
-    <t>-0.16, 0.48</t>
-  </si>
-  <si>
-    <t>-0.37, 0.05</t>
-  </si>
-  <si>
     <t>-0.34, 0.24</t>
   </si>
   <si>
-    <t>-0.34, 0.12</t>
-  </si>
-  <si>
     <t>p=0.12</t>
   </si>
   <si>
@@ -399,9 +349,6 @@
     <t>-0.20, 0.13</t>
   </si>
   <si>
-    <t>-0.19, 0.41</t>
-  </si>
-  <si>
     <t>-0.25, 0.07</t>
   </si>
   <si>
@@ -414,12 +361,6 @@
     <t xml:space="preserve">lab </t>
   </si>
   <si>
-    <t>-0.40, 0.16</t>
-  </si>
-  <si>
-    <t>-0.38, 0.33</t>
-  </si>
-  <si>
     <t>-0.42, 0.29</t>
   </si>
   <si>
@@ -435,24 +376,12 @@
     <t>*</t>
   </si>
   <si>
-    <t>-0.09, 0.57</t>
-  </si>
-  <si>
-    <t>-0.56, -0.05</t>
-  </si>
-  <si>
     <t>-0.77, 0.18</t>
   </si>
   <si>
     <t>-0.07, 0.91</t>
   </si>
   <si>
-    <t>-0.37, 0.11</t>
-  </si>
-  <si>
-    <t>-0.18, 0.50</t>
-  </si>
-  <si>
     <t>-0.26, 0.06</t>
   </si>
   <si>
@@ -471,12 +400,6 @@
     <t>p=0.44</t>
   </si>
   <si>
-    <t>-0.18, 0.40</t>
-  </si>
-  <si>
-    <t>-0.27, 0.12</t>
-  </si>
-  <si>
     <t>p=0.63</t>
   </si>
   <si>
@@ -495,27 +418,9 @@
     <t>-0.21, 0.22</t>
   </si>
   <si>
-    <t>0.13, 0.64</t>
-  </si>
-  <si>
     <t>**</t>
   </si>
   <si>
-    <t>-0.12, 0.27</t>
-  </si>
-  <si>
-    <t>-0.33, 0.25</t>
-  </si>
-  <si>
-    <t>-0.74, 0.22</t>
-  </si>
-  <si>
-    <t>-0.19, 0.27</t>
-  </si>
-  <si>
-    <t>-0.64, 0.12</t>
-  </si>
-  <si>
     <t>p=0.24</t>
   </si>
   <si>
@@ -546,9 +451,6 @@
     <t>NS</t>
   </si>
   <si>
-    <t>p=0.22</t>
-  </si>
-  <si>
     <t>Activity</t>
   </si>
   <si>
@@ -576,24 +478,6 @@
     <t>p=0.005</t>
   </si>
   <si>
-    <t>-0.59, 0.11</t>
-  </si>
-  <si>
-    <t>-0.59, 0.13</t>
-  </si>
-  <si>
-    <t>-0.62, 0.02</t>
-  </si>
-  <si>
-    <t>-0.36, 0.30</t>
-  </si>
-  <si>
-    <t>-1.30, 0.28</t>
-  </si>
-  <si>
-    <t>-0.02, 0.07</t>
-  </si>
-  <si>
     <t>-0.79, 0.33</t>
   </si>
   <si>
@@ -636,21 +520,6 @@
     <t>p=0.21</t>
   </si>
   <si>
-    <t>-0.46, 0.38</t>
-  </si>
-  <si>
-    <t>-0.17, 0.65</t>
-  </si>
-  <si>
-    <t>-0.10, 0.66</t>
-  </si>
-  <si>
-    <t>-0.21, 0.57</t>
-  </si>
-  <si>
-    <t>-0.19, 0.64</t>
-  </si>
-  <si>
     <t>-0.09, 0.03</t>
   </si>
   <si>
@@ -672,96 +541,9 @@
     <t>-0.56, 0.10</t>
   </si>
   <si>
-    <t>-0.40, 0.35</t>
-  </si>
-  <si>
-    <t>-0.56, 0.30</t>
-  </si>
-  <si>
-    <t>-0.40, 0.25</t>
-  </si>
-  <si>
-    <t>-0.67, 0.02</t>
-  </si>
-  <si>
-    <t>-0.48, 0.64</t>
-  </si>
-  <si>
-    <t>-0.04, 0.07</t>
-  </si>
-  <si>
-    <t>-0.23, 0.22</t>
-  </si>
-  <si>
-    <t>-0.30, 0.09</t>
-  </si>
-  <si>
-    <t>-0.19, 0.20</t>
-  </si>
-  <si>
-    <t>-0.16, 0.34</t>
-  </si>
-  <si>
-    <t>-0.06, 0.04</t>
-  </si>
-  <si>
-    <t>-0.21, 0.07</t>
-  </si>
-  <si>
-    <t>-0.22, 0.23</t>
-  </si>
-  <si>
-    <t>-0.17, 0.11</t>
-  </si>
-  <si>
-    <t>-0.14, 0.23</t>
-  </si>
-  <si>
-    <t>-0.11, 0.55</t>
-  </si>
-  <si>
     <t>-0.02, 0.02</t>
   </si>
   <si>
-    <t>p=0.97</t>
-  </si>
-  <si>
-    <t>-0.20, 0.48</t>
-  </si>
-  <si>
-    <t>-0.21, 0.49</t>
-  </si>
-  <si>
-    <t>-0.23, 0.41</t>
-  </si>
-  <si>
-    <t>-0.25, 0.41</t>
-  </si>
-  <si>
-    <t>-0.25, 0.44</t>
-  </si>
-  <si>
-    <t>-0.04, 0.03</t>
-  </si>
-  <si>
-    <t>-0.53, 1.87</t>
-  </si>
-  <si>
-    <t>-0.15, 2.74</t>
-  </si>
-  <si>
-    <t>-0.26, 1.87</t>
-  </si>
-  <si>
-    <t>-0.45, 1.58</t>
-  </si>
-  <si>
-    <t>-0.62, 1.55</t>
-  </si>
-  <si>
-    <t>-0.61, 0.11</t>
-  </si>
-  <si>
     <t>F - score in MLMR model tables are F statistics testing the suitability of moderators in model (significant means moderator is good)</t>
   </si>
   <si>
@@ -868,6 +650,216 @@
   </si>
   <si>
     <t>-0.52, 0.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S13 - Contrast models with score as a moderator term to see if effect sizes from scores are significantly different from the rest of the dataset. </t>
+  </si>
+  <si>
+    <t>-0.28, 0.10</t>
+  </si>
+  <si>
+    <t>p=0.80</t>
+  </si>
+  <si>
+    <t>-0.65, 0.37</t>
+  </si>
+  <si>
+    <t>-0.24, 0.19</t>
+  </si>
+  <si>
+    <t>-0.15, 0.33</t>
+  </si>
+  <si>
+    <t>-0.23, 0.03</t>
+  </si>
+  <si>
+    <t>p=0.73</t>
+  </si>
+  <si>
+    <t>-0.45, 0.12</t>
+  </si>
+  <si>
+    <t>-0.41, 0.58</t>
+  </si>
+  <si>
+    <t>-0.17, 0.48</t>
+  </si>
+  <si>
+    <t>-0.36, 0.06</t>
+  </si>
+  <si>
+    <t>-0.33, 0.13</t>
+  </si>
+  <si>
+    <t>-0.24, 0.53</t>
+  </si>
+  <si>
+    <t>-0.19, 0.40</t>
+  </si>
+  <si>
+    <t>p=0.93</t>
+  </si>
+  <si>
+    <t>-0.41, 0.15</t>
+  </si>
+  <si>
+    <t>-0.37, 0.34</t>
+  </si>
+  <si>
+    <t>-0.10, 0.57</t>
+  </si>
+  <si>
+    <t>-0.56, -0.04</t>
+  </si>
+  <si>
+    <t>p=0.37</t>
+  </si>
+  <si>
+    <t>-0.36, 0.12</t>
+  </si>
+  <si>
+    <t>-0.18, 0.49</t>
+  </si>
+  <si>
+    <t>p=0.49</t>
+  </si>
+  <si>
+    <t>-0.26, 0.13</t>
+  </si>
+  <si>
+    <t>0.12, 0.64</t>
+  </si>
+  <si>
+    <t>-0.14, 0.26</t>
+  </si>
+  <si>
+    <t>p=0.25</t>
+  </si>
+  <si>
+    <t>-0.32, 0.25</t>
+  </si>
+  <si>
+    <t>-0.75, 0.25</t>
+  </si>
+  <si>
+    <t>-0.19, 0.26</t>
+  </si>
+  <si>
+    <t>-0.62, 0.13</t>
+  </si>
+  <si>
+    <t>-0.54, 0.14</t>
+  </si>
+  <si>
+    <t>-0.56, 0.14</t>
+  </si>
+  <si>
+    <t>-0.57, 0.05</t>
+  </si>
+  <si>
+    <t>-0.29, 0.35</t>
+  </si>
+  <si>
+    <t>-1.25, -0.24</t>
+  </si>
+  <si>
+    <t>-0.02, 0.05</t>
+  </si>
+  <si>
+    <t>p=0.23</t>
+  </si>
+  <si>
+    <t>-0.47, 0.37</t>
+  </si>
+  <si>
+    <t>-0.18, 0.64</t>
+  </si>
+  <si>
+    <t>-0.12, 0.65</t>
+  </si>
+  <si>
+    <t>-0.23, 0.56</t>
+  </si>
+  <si>
+    <t>-0.20, 0.63</t>
+  </si>
+  <si>
+    <t>p=0.43</t>
+  </si>
+  <si>
+    <t>-0.29, 0.36</t>
+  </si>
+  <si>
+    <t>-0.43, 0.26</t>
+  </si>
+  <si>
+    <t>-0.30, 0.25</t>
+  </si>
+  <si>
+    <t>-0.58, 0.04</t>
+  </si>
+  <si>
+    <t>-0.42, 0.66</t>
+  </si>
+  <si>
+    <t>-0.03, 0.04</t>
+  </si>
+  <si>
+    <t>-0.32, 0.01</t>
+  </si>
+  <si>
+    <t>-0.22, 0.11</t>
+  </si>
+  <si>
+    <t>-0.03, 0.05</t>
+  </si>
+  <si>
+    <t>-0.20, 0.08</t>
+  </si>
+  <si>
+    <t>-0.19, 0.24</t>
+  </si>
+  <si>
+    <t>-0.16, 0.11</t>
+  </si>
+  <si>
+    <t>-0.13, 0.24</t>
+  </si>
+  <si>
+    <t>-0.09, 0.55</t>
+  </si>
+  <si>
+    <t>p=0.95</t>
+  </si>
+  <si>
+    <t>-0.23, 0.39</t>
+  </si>
+  <si>
+    <t>-0.29, 0.31</t>
+  </si>
+  <si>
+    <t>-0.28, 0.34</t>
+  </si>
+  <si>
+    <t>-0.02, 0.03</t>
+  </si>
+  <si>
+    <t>-0.76, 0.49</t>
+  </si>
+  <si>
+    <t>-0.19, 0.82</t>
+  </si>
+  <si>
+    <t>-0.42, 0.56</t>
+  </si>
+  <si>
+    <t>-0.55, 0.30</t>
+  </si>
+  <si>
+    <t>-0.85, 0.56</t>
+  </si>
+  <si>
+    <t>-0.12, 0.14</t>
   </si>
 </sst>
 </file>
@@ -1335,87 +1327,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997D318C-6FE4-1349-B40F-3ACEE7BB8369}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>248</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>247</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>246</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>257</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>243</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1427,7 +1424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9948B2D6-0D24-AC4F-B3C7-22D23935FFEB}">
   <dimension ref="A1:AN60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -1443,23 +1440,23 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -1586,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D8" s="5"/>
       <c r="I8" s="5" t="s">
@@ -1596,7 +1593,7 @@
         <v>0.68</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>8</v>
@@ -1605,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Y8" s="5" t="s">
         <v>8</v>
@@ -1614,7 +1611,7 @@
         <v>0.93</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AG8" s="5" t="s">
         <v>8</v>
@@ -1623,7 +1620,7 @@
         <v>0.54</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
@@ -1687,7 +1684,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -1816,7 +1813,7 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>0.84</v>
@@ -1996,7 +1993,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>18</v>
@@ -2011,7 +2008,7 @@
         <v>20</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9" t="s">
@@ -2033,7 +2030,7 @@
         <v>20</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q15" s="9"/>
       <c r="R15" s="9" t="s">
@@ -2055,7 +2052,7 @@
         <v>20</v>
       </c>
       <c r="X15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9" t="s">
@@ -2077,7 +2074,7 @@
         <v>20</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AG15" s="9"/>
       <c r="AH15" s="9" t="s">
@@ -2099,18 +2096,18 @@
         <v>20</v>
       </c>
       <c r="AN15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>-0.23</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D16">
         <v>-0.59</v>
@@ -2128,13 +2125,13 @@
         <v>39</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J16" s="28">
         <v>0.08</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L16" s="28">
         <v>0.42</v>
@@ -2152,13 +2149,13 @@
         <v>8</v>
       </c>
       <c r="Q16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R16">
         <v>0.23</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="T16">
         <v>0.68</v>
@@ -2176,13 +2173,13 @@
         <v>3</v>
       </c>
       <c r="Y16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z16" s="5">
         <v>-0.05</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AB16" s="5">
         <v>-0.21</v>
@@ -2200,13 +2197,13 @@
         <v>9</v>
       </c>
       <c r="AG16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AH16" s="28">
         <v>0.23</v>
       </c>
       <c r="AI16" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AJ16" s="28">
         <v>0.65</v>
@@ -2226,13 +2223,13 @@
     </row>
     <row r="17" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B17" s="13">
         <v>0.01</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D17" s="13">
         <v>0.02</v>
@@ -2250,13 +2247,13 @@
         <v>8</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J17" s="13">
         <v>-0.11</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L17" s="13">
         <v>-0.83</v>
@@ -2274,13 +2271,13 @@
         <v>34</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R17" s="15">
         <v>0.02</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="T17" s="15">
         <v>0.05</v>
@@ -2298,13 +2295,13 @@
         <v>41</v>
       </c>
       <c r="Y17" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Z17" s="13">
         <v>0.14000000000000001</v>
       </c>
       <c r="AA17" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AB17" s="13">
         <v>0.97</v>
@@ -2322,13 +2319,13 @@
         <v>51</v>
       </c>
       <c r="AG17" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AH17" s="15">
         <v>-0.26</v>
       </c>
       <c r="AI17" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AJ17" s="15">
         <v>-0.74</v>
@@ -2407,7 +2404,7 @@
         <v>52.82</v>
       </c>
       <c r="AI19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
@@ -2418,7 +2415,7 @@
         <v>0.01</v>
       </c>
       <c r="C20" t="s">
-        <v>276</v>
+        <v>203</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>8</v>
@@ -2427,7 +2424,7 @@
         <v>0.02</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>8</v>
@@ -2436,7 +2433,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Y20" s="5" t="s">
         <v>8</v>
@@ -2445,7 +2442,7 @@
         <v>0.36</v>
       </c>
       <c r="AA20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AG20" s="5" t="s">
         <v>8</v>
@@ -2454,7 +2451,7 @@
         <v>0.02</v>
       </c>
       <c r="AI20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -2518,7 +2515,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -2645,7 +2642,7 @@
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>0.43</v>
@@ -2826,7 +2823,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>18</v>
@@ -2841,7 +2838,7 @@
         <v>20</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9" t="s">
@@ -2863,7 +2860,7 @@
         <v>20</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q27" s="9"/>
       <c r="R27" s="9" t="s">
@@ -2885,7 +2882,7 @@
         <v>20</v>
       </c>
       <c r="X27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9" t="s">
@@ -2907,7 +2904,7 @@
         <v>20</v>
       </c>
       <c r="AF27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9" t="s">
@@ -2929,18 +2926,18 @@
         <v>20</v>
       </c>
       <c r="AN27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B28" s="7">
         <v>-0.18</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>277</v>
+        <v>204</v>
       </c>
       <c r="D28" s="7">
         <v>-0.61</v>
@@ -2958,13 +2955,13 @@
         <v>39</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J28" s="26">
         <v>-0.04</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L28" s="26">
         <v>-0.64</v>
@@ -2982,13 +2979,13 @@
         <v>8</v>
       </c>
       <c r="Q28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R28">
         <v>0.04</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="T28">
         <v>0.26</v>
@@ -3006,13 +3003,13 @@
         <v>3</v>
       </c>
       <c r="Y28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z28" s="7">
         <v>0.03</v>
       </c>
       <c r="AA28" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AB28" s="7">
         <v>0.22</v>
@@ -3030,13 +3027,13 @@
         <v>9</v>
       </c>
       <c r="AG28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AH28" s="7">
         <v>-0.03</v>
       </c>
       <c r="AI28" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AJ28" s="7">
         <v>-0.14000000000000001</v>
@@ -3056,13 +3053,13 @@
     </row>
     <row r="29" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B29" s="15">
         <v>-0.02</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>278</v>
+        <v>205</v>
       </c>
       <c r="D29" s="15">
         <v>-0.08</v>
@@ -3080,13 +3077,13 @@
         <v>8</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J29" s="13">
         <v>0.01</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L29" s="13">
         <v>0.12</v>
@@ -3104,13 +3101,13 @@
         <v>34</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R29" s="15">
         <v>-0.06</v>
       </c>
       <c r="S29" s="16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="T29" s="15">
         <v>-0.37</v>
@@ -3128,13 +3125,13 @@
         <v>41</v>
       </c>
       <c r="Y29" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Z29" s="15">
         <v>0.05</v>
       </c>
       <c r="AA29" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AB29" s="15">
         <v>0.6</v>
@@ -3152,13 +3149,13 @@
         <v>51</v>
       </c>
       <c r="AG29" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AH29" s="15">
         <v>0.03</v>
       </c>
       <c r="AI29" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AJ29" s="15">
         <v>0.14000000000000001</v>
@@ -3289,7 +3286,7 @@
   <dimension ref="A1:AN68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="AD25" sqref="AD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3303,23 +3300,23 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -3396,7 +3393,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2464.17</v>
+        <v>2803.56</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -3423,7 +3420,7 @@
         <v>6</v>
       </c>
       <c r="Z7">
-        <v>2199.77</v>
+        <v>2193.35</v>
       </c>
       <c r="AA7" t="s">
         <v>7</v>
@@ -3443,10 +3440,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>8</v>
@@ -3455,7 +3452,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>8</v>
@@ -3464,16 +3461,16 @@
         <v>0.03</v>
       </c>
       <c r="S8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="Y8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="Z8" s="5">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="AG8" s="5" t="s">
         <v>8</v>
@@ -3482,7 +3479,7 @@
         <v>0.02</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
@@ -3614,13 +3611,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="C11">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="D11" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" s="4"/>
       <c r="I11" t="s">
@@ -3681,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D12">
         <v>106</v>
@@ -3740,13 +3737,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="C13">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="D13">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
@@ -3782,7 +3779,7 @@
         <v>0.39</v>
       </c>
       <c r="AB13">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="AG13" t="s">
         <v>15</v>
@@ -3870,7 +3867,7 @@
         <v>20</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9" t="s">
@@ -3892,7 +3889,7 @@
         <v>20</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q15" s="9"/>
       <c r="R15" s="9" t="s">
@@ -3914,7 +3911,7 @@
         <v>20</v>
       </c>
       <c r="X15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9" t="s">
@@ -3936,7 +3933,7 @@
         <v>20</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AG15" s="9"/>
       <c r="AH15" s="9" t="s">
@@ -3958,42 +3955,42 @@
         <v>20</v>
       </c>
       <c r="AN15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>-0.13</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D16">
-        <v>-1.1000000000000001</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="E16">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="F16">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G16">
         <v>105</v>
       </c>
       <c r="H16" s="5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J16" s="28">
         <v>-0.05</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L16" s="28">
         <v>-0.3</v>
@@ -4011,13 +4008,13 @@
         <v>43</v>
       </c>
       <c r="Q16" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R16" s="4">
         <v>0.24</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="T16" s="4">
         <v>1.74</v>
@@ -4035,22 +4032,22 @@
         <v>42</v>
       </c>
       <c r="Y16" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z16" s="5">
         <v>0.1</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB16" s="5">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="AC16" s="5">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="AD16" s="5">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AE16" s="5">
         <v>38</v>
@@ -4059,13 +4056,13 @@
         <v>48</v>
       </c>
       <c r="AG16" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AH16" s="28">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AI16" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AJ16" s="28">
         <v>0.87</v>
@@ -4085,37 +4082,37 @@
     </row>
     <row r="17" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B17" s="13">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="D17" s="13">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="E17" s="13">
-        <v>0.99990000000000001</v>
+        <v>0.94</v>
       </c>
       <c r="F17" s="15">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G17" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H17" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J17" s="13">
         <v>0.26</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L17" s="13">
         <v>1.08</v>
@@ -4133,13 +4130,13 @@
         <v>3</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R17" s="15">
         <v>-0.03</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="T17" s="15">
         <v>-0.18</v>
@@ -4157,22 +4154,22 @@
         <v>5</v>
       </c>
       <c r="Y17" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z17" s="13">
         <v>-0.09</v>
       </c>
       <c r="AA17" s="14" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="AB17" s="13">
-        <v>-1</v>
+        <v>-0.96</v>
       </c>
       <c r="AC17" s="13">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="AD17" s="13">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AE17" s="13">
         <v>18</v>
@@ -4181,13 +4178,13 @@
         <v>19</v>
       </c>
       <c r="AG17" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH17" s="15">
         <v>-0.05</v>
       </c>
       <c r="AI17" s="16" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AJ17" s="15">
         <v>-0.16</v>
@@ -4227,7 +4224,7 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>3744.07</v>
+        <v>3790.22</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -4254,7 +4251,7 @@
         <v>6</v>
       </c>
       <c r="Z19">
-        <v>1062</v>
+        <v>1057.96</v>
       </c>
       <c r="AA19" t="s">
         <v>7</v>
@@ -4266,7 +4263,7 @@
         <v>77.59</v>
       </c>
       <c r="AI19" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
@@ -4274,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="5">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>8</v>
@@ -4286,7 +4283,7 @@
         <v>0.13</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>8</v>
@@ -4295,16 +4292,16 @@
         <v>0.06</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="Y20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="Z20">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="AA20" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="AG20" s="5" t="s">
         <v>8</v>
@@ -4313,7 +4310,7 @@
         <v>0.15</v>
       </c>
       <c r="AI20" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -4448,10 +4445,10 @@
         <v>0.01</v>
       </c>
       <c r="C23">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="D23" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -4576,7 +4573,7 @@
         <v>0.63</v>
       </c>
       <c r="D25">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="I25" t="s">
         <v>15</v>
@@ -4609,10 +4606,10 @@
         <v>0.03</v>
       </c>
       <c r="AA25">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="AB25">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="AG25" t="s">
         <v>15</v>
@@ -4700,7 +4697,7 @@
         <v>20</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9" t="s">
@@ -4722,7 +4719,7 @@
         <v>20</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q27" s="9"/>
       <c r="R27" s="9" t="s">
@@ -4744,7 +4741,7 @@
         <v>20</v>
       </c>
       <c r="X27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9" t="s">
@@ -4766,7 +4763,7 @@
         <v>20</v>
       </c>
       <c r="AF27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9" t="s">
@@ -4788,42 +4785,42 @@
         <v>20</v>
       </c>
       <c r="AN27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B28" s="7">
-        <v>-0.15</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>91</v>
+        <v>209</v>
       </c>
       <c r="D28" s="7">
-        <v>-0.56000000000000005</v>
+        <v>-0.53</v>
       </c>
       <c r="E28" s="7">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="F28">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G28">
         <v>105</v>
       </c>
       <c r="H28" s="5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J28" s="26">
         <v>-0.04</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L28" s="26">
         <v>-1.38</v>
@@ -4841,13 +4838,13 @@
         <v>43</v>
       </c>
       <c r="Q28" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R28">
         <v>-0.02</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="T28">
         <v>-0.39</v>
@@ -4865,22 +4862,22 @@
         <v>42</v>
       </c>
       <c r="Y28" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z28" s="7">
         <v>0.09</v>
       </c>
       <c r="AA28" s="17" t="s">
-        <v>99</v>
+        <v>211</v>
       </c>
       <c r="AB28" s="7">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="AC28" s="7">
         <v>0.45</v>
       </c>
       <c r="AD28" s="5">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AE28" s="5">
         <v>38</v>
@@ -4889,13 +4886,13 @@
         <v>48</v>
       </c>
       <c r="AG28" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AH28" s="7">
         <v>0.06</v>
       </c>
       <c r="AI28" s="17" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="AJ28" s="7">
         <v>1.1399999999999999</v>
@@ -4915,37 +4912,37 @@
     </row>
     <row r="29" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B29" s="13">
         <v>-0.03</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="D29" s="13">
-        <v>-0.28999999999999998</v>
+        <v>-0.25</v>
       </c>
       <c r="E29" s="13">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="F29" s="15">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G29" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H29" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J29" s="13">
         <v>-0.08</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L29" s="13">
         <v>-0.37</v>
@@ -4963,13 +4960,13 @@
         <v>3</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R29" s="15">
         <v>-0.02</v>
       </c>
       <c r="S29" s="16" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="T29" s="15">
         <v>-0.24</v>
@@ -4987,22 +4984,22 @@
         <v>5</v>
       </c>
       <c r="Y29" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z29" s="15">
-        <v>-0.09</v>
+        <v>-0.1</v>
       </c>
       <c r="AA29" s="16" t="s">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="AB29" s="15">
-        <v>-1.41</v>
+        <v>-1.49</v>
       </c>
       <c r="AC29" s="15">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AD29" s="13">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AE29" s="13">
         <v>18</v>
@@ -5011,13 +5008,13 @@
         <v>19</v>
       </c>
       <c r="AG29" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH29" s="15">
         <v>-0.08</v>
       </c>
       <c r="AI29" s="16" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="AJ29" s="15">
         <v>-0.39</v>
@@ -5495,8 +5492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46B4CE2-FDF2-D946-A9CE-F47AE9C974AB}">
   <dimension ref="A1:AN35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5510,23 +5507,23 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5603,7 +5600,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2451.54</v>
+        <v>2797.87</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -5630,7 +5627,7 @@
         <v>6</v>
       </c>
       <c r="Z7">
-        <v>2196.61</v>
+        <v>2192.94</v>
       </c>
       <c r="AA7" t="s">
         <v>7</v>
@@ -5650,10 +5647,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="5">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>8</v>
@@ -5662,7 +5659,7 @@
         <v>0.36</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>8</v>
@@ -5671,16 +5668,16 @@
         <v>0.41</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Y8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="Z8" s="5">
-        <v>2.19</v>
+        <v>1.99</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AG8" s="5" t="s">
         <v>8</v>
@@ -5689,7 +5686,7 @@
         <v>0.1</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
@@ -5821,13 +5818,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="C11">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="D11" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" s="4"/>
       <c r="I11" t="s">
@@ -5862,7 +5859,7 @@
         <v>0.09</v>
       </c>
       <c r="AA11">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="AB11">
         <v>61</v>
@@ -5888,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D12">
         <v>106</v>
@@ -5921,10 +5918,10 @@
         <v>14</v>
       </c>
       <c r="Z12">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AA12">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="AB12">
         <v>45</v>
@@ -5947,13 +5944,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="C13">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="D13">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
@@ -5983,13 +5980,13 @@
         <v>15</v>
       </c>
       <c r="Z13">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="AA13">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="AB13">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="AG13" t="s">
         <v>15</v>
@@ -6077,7 +6074,7 @@
         <v>20</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9" t="s">
@@ -6099,7 +6096,7 @@
         <v>20</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q15" s="9"/>
       <c r="R15" s="9" t="s">
@@ -6121,7 +6118,7 @@
         <v>20</v>
       </c>
       <c r="X15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9" t="s">
@@ -6143,7 +6140,7 @@
         <v>20</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AG15" s="9"/>
       <c r="AH15" s="9" t="s">
@@ -6165,42 +6162,42 @@
         <v>20</v>
       </c>
       <c r="AN15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>-0.16</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="D16">
-        <v>-1.08</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="E16">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="F16">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="G16">
         <v>100</v>
       </c>
       <c r="H16">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J16">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="L16">
         <v>-0.4</v>
@@ -6218,13 +6215,13 @@
         <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R16">
         <v>0.15</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="T16">
         <v>0.76</v>
@@ -6242,22 +6239,22 @@
         <v>23</v>
       </c>
       <c r="Y16" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z16" s="5">
         <v>0.16</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>112</v>
+        <v>216</v>
       </c>
       <c r="AB16" s="5">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AC16" s="5">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="AD16" s="5">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AE16" s="5">
         <v>23</v>
@@ -6266,13 +6263,13 @@
         <v>26</v>
       </c>
       <c r="AG16" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AH16">
         <v>0.08</v>
       </c>
       <c r="AI16" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AJ16">
         <v>0.92</v>
@@ -6292,19 +6289,19 @@
     </row>
     <row r="17" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B17" s="13">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="D17" s="13">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="E17" s="13">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="F17" s="15">
         <v>216</v>
@@ -6316,13 +6313,13 @@
         <v>16</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="J17" s="13">
         <v>0.05</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="L17" s="13">
         <v>0.6</v>
@@ -6340,13 +6337,13 @@
         <v>28</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="R17" s="15">
         <v>0.18</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="T17" s="15">
         <v>0.64</v>
@@ -6364,37 +6361,37 @@
         <v>21</v>
       </c>
       <c r="Y17" s="13" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="Z17" s="13">
-        <v>-0.16</v>
+        <v>-0.15</v>
       </c>
       <c r="AA17" s="14" t="s">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c r="AB17" s="13">
-        <v>-1.48</v>
+        <v>-1.41</v>
       </c>
       <c r="AC17" s="13">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="AD17" s="13">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="AE17" s="15">
         <v>26</v>
       </c>
       <c r="AF17" s="15">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG17" s="13" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="AH17" s="15">
         <v>-0.05</v>
       </c>
       <c r="AI17" s="16" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AJ17" s="15">
         <v>-0.32</v>
@@ -6434,7 +6431,7 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>3746.58</v>
+        <v>3818.58</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -6461,7 +6458,7 @@
         <v>6</v>
       </c>
       <c r="Z19">
-        <v>1072.03</v>
+        <v>1069.6500000000001</v>
       </c>
       <c r="AA19" t="s">
         <v>7</v>
@@ -6473,7 +6470,7 @@
         <v>77.27</v>
       </c>
       <c r="AI19" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
@@ -6481,10 +6478,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.52</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>8</v>
@@ -6493,7 +6490,7 @@
         <v>2.39</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>8</v>
@@ -6502,16 +6499,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="Y20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="Z20">
-        <v>1.29</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AA20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG20" s="5" t="s">
         <v>8</v>
@@ -6520,7 +6517,7 @@
         <v>0.42</v>
       </c>
       <c r="AI20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -6652,13 +6649,13 @@
         <v>13</v>
       </c>
       <c r="B23">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C23">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="D23" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -6783,7 +6780,7 @@
         <v>0.63</v>
       </c>
       <c r="D25">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="I25" t="s">
         <v>15</v>
@@ -6819,7 +6816,7 @@
         <v>0.18</v>
       </c>
       <c r="AB25">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="AG25" t="s">
         <v>15</v>
@@ -6907,7 +6904,7 @@
         <v>20</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9" t="s">
@@ -6929,7 +6926,7 @@
         <v>20</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q27" s="9"/>
       <c r="R27" s="9" t="s">
@@ -6951,7 +6948,7 @@
         <v>20</v>
       </c>
       <c r="X27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9" t="s">
@@ -6973,7 +6970,7 @@
         <v>20</v>
       </c>
       <c r="AF27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9" t="s">
@@ -6995,42 +6992,42 @@
         <v>20</v>
       </c>
       <c r="AN27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B28" s="7">
-        <v>-0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>115</v>
+        <v>218</v>
       </c>
       <c r="D28" s="7">
-        <v>-0.9</v>
+        <v>-0.87</v>
       </c>
       <c r="E28" s="7">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="F28">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="G28">
         <v>100</v>
       </c>
       <c r="H28">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J28" s="18">
         <v>-0.09</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="L28" s="18">
         <v>-2.11</v>
@@ -7048,13 +7045,13 @@
         <v>17</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R28" s="26">
         <v>0.01</v>
       </c>
       <c r="S28" s="27" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="T28" s="26">
         <v>0.1</v>
@@ -7072,22 +7069,22 @@
         <v>23</v>
       </c>
       <c r="Y28" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z28" s="7">
         <v>0.11</v>
       </c>
       <c r="AA28" s="17" t="s">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="AB28" s="7">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="AC28" s="7">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="AD28" s="5">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AE28" s="5">
         <v>23</v>
@@ -7096,13 +7093,13 @@
         <v>26</v>
       </c>
       <c r="AG28" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AH28" s="7">
         <v>0.06</v>
       </c>
       <c r="AI28" s="17" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="AJ28" s="7">
         <v>1.18</v>
@@ -7122,19 +7119,19 @@
     </row>
     <row r="29" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B29" s="13">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="D29" s="13">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="E29" s="13">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="F29" s="15">
         <v>216</v>
@@ -7146,13 +7143,13 @@
         <v>16</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="J29" s="13">
         <v>0.08</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="L29" s="13">
         <v>1.55</v>
@@ -7170,13 +7167,13 @@
         <v>28</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="R29" s="13">
         <v>-0.04</v>
       </c>
       <c r="S29" s="14" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="T29" s="13">
         <v>-0.54</v>
@@ -7194,37 +7191,37 @@
         <v>21</v>
       </c>
       <c r="Y29" s="13" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="Z29" s="15">
         <v>-0.09</v>
       </c>
       <c r="AA29" s="16" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="AB29" s="15">
-        <v>-1.1399999999999999</v>
+        <v>-1.07</v>
       </c>
       <c r="AC29" s="15">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AD29" s="13">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="AE29" s="15">
         <v>26</v>
       </c>
       <c r="AF29" s="15">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG29" s="13" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="AH29" s="15">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AI29" s="16" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="AJ29" s="15">
         <v>-0.65</v>
@@ -7261,30 +7258,30 @@
   <dimension ref="A1:AN35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="AO17" sqref="AO17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>195</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7361,7 +7358,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2457.9</v>
+        <v>2802.22</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -7388,7 +7385,7 @@
         <v>6</v>
       </c>
       <c r="Z7">
-        <v>2207.5500000000002</v>
+        <v>2203.8000000000002</v>
       </c>
       <c r="AA7" t="s">
         <v>7</v>
@@ -7408,10 +7405,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="5">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>51</v>
+        <v>221</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>8</v>
@@ -7420,7 +7417,7 @@
         <v>0.15</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>8</v>
@@ -7429,19 +7426,19 @@
         <v>0.1</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Z8" s="4">
-        <v>5.48</v>
+        <v>5.09</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AB8" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="AG8" s="5" t="s">
         <v>8</v>
@@ -7450,7 +7447,7 @@
         <v>2.9</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
@@ -7582,13 +7579,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="C11">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="D11" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" s="4"/>
       <c r="I11" t="s">
@@ -7649,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D12">
         <v>106</v>
@@ -7682,10 +7679,10 @@
         <v>14</v>
       </c>
       <c r="Z12">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AA12">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="AB12">
         <v>45</v>
@@ -7708,13 +7705,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="C13">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="D13">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
@@ -7744,13 +7741,13 @@
         <v>15</v>
       </c>
       <c r="Z13">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="AA13">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="AB13">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="AG13" t="s">
         <v>15</v>
@@ -7838,7 +7835,7 @@
         <v>20</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9" t="s">
@@ -7860,7 +7857,7 @@
         <v>20</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q15" s="9"/>
       <c r="R15" s="9" t="s">
@@ -7882,7 +7879,7 @@
         <v>20</v>
       </c>
       <c r="X15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9" t="s">
@@ -7904,7 +7901,7 @@
         <v>20</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AG15" s="9"/>
       <c r="AH15" s="9" t="s">
@@ -7926,42 +7923,42 @@
         <v>20</v>
       </c>
       <c r="AN15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B16">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c r="D16">
-        <v>-0.85</v>
+        <v>-0.92</v>
       </c>
       <c r="E16">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="F16">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="G16">
         <v>100</v>
       </c>
       <c r="H16">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J16">
         <v>-0.06</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="L16">
         <v>-0.35</v>
@@ -7979,13 +7976,13 @@
         <v>5</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R16">
         <v>0.31</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="T16">
         <v>1.2</v>
@@ -8003,22 +8000,22 @@
         <v>1</v>
       </c>
       <c r="Y16" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z16" s="5">
         <v>0.24</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>134</v>
+        <v>224</v>
       </c>
       <c r="AB16" s="5">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AC16" s="5">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="AD16" s="5">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AE16" s="5">
         <v>18</v>
@@ -8027,13 +8024,13 @@
         <v>22</v>
       </c>
       <c r="AG16" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AH16">
         <v>-0.28999999999999998</v>
       </c>
       <c r="AI16" s="10" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="AJ16">
         <v>-1.24</v>
@@ -8053,19 +8050,19 @@
     </row>
     <row r="17" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B17" s="13">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="D17" s="13">
-        <v>-0.14000000000000001</v>
+        <v>-0.08</v>
       </c>
       <c r="E17" s="13">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F17" s="15">
         <v>255</v>
@@ -8077,13 +8074,13 @@
         <v>22</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="J17" s="13">
         <v>0.06</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="L17" s="13">
         <v>0.39</v>
@@ -8101,13 +8098,13 @@
         <v>39</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="R17" s="15">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="T17" s="15">
         <v>-0.31</v>
@@ -8125,22 +8122,22 @@
         <v>44</v>
       </c>
       <c r="Y17" s="29" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="Z17" s="29">
-        <v>-0.31</v>
+        <v>-0.3</v>
       </c>
       <c r="AA17" s="30" t="s">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="AB17" s="29">
-        <v>-2.34</v>
+        <v>-2.2599999999999998</v>
       </c>
       <c r="AC17" s="29">
         <v>0.02</v>
       </c>
       <c r="AD17" s="29">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="AE17" s="29">
         <v>30</v>
@@ -8148,28 +8145,28 @@
       <c r="AF17" s="29">
         <v>40</v>
       </c>
-      <c r="AG17" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH17" s="13">
+      <c r="AG17" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH17" s="29">
         <v>0.42</v>
       </c>
-      <c r="AI17" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="AJ17" s="13">
+      <c r="AI17" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ17" s="29">
         <v>1.7</v>
       </c>
-      <c r="AK17" s="13">
+      <c r="AK17" s="29">
         <v>0.09</v>
       </c>
-      <c r="AL17" s="13">
+      <c r="AL17" s="29">
         <v>90</v>
       </c>
-      <c r="AM17" s="13">
+      <c r="AM17" s="29">
         <v>8</v>
       </c>
-      <c r="AN17" s="13">
+      <c r="AN17" s="29">
         <v>9</v>
       </c>
     </row>
@@ -8195,7 +8192,7 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>3740.31</v>
+        <v>3810.97</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -8222,7 +8219,7 @@
         <v>6</v>
       </c>
       <c r="Z19">
-        <v>1064.19</v>
+        <v>1062.3399999999999</v>
       </c>
       <c r="AA19" t="s">
         <v>7</v>
@@ -8234,7 +8231,7 @@
         <v>77.55</v>
       </c>
       <c r="AI19" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
@@ -8242,10 +8239,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="5">
-        <v>0.86</v>
+        <v>0.81</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>27</v>
+        <v>226</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>8</v>
@@ -8254,7 +8251,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>8</v>
@@ -8263,16 +8260,16 @@
         <v>0.23</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="Y20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="Z20">
-        <v>0.6</v>
+        <v>0.47</v>
       </c>
       <c r="AA20" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="AG20" s="5" t="s">
         <v>8</v>
@@ -8281,7 +8278,7 @@
         <v>0.23</v>
       </c>
       <c r="AI20" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -8419,7 +8416,7 @@
         <v>0.53</v>
       </c>
       <c r="D23" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -8538,13 +8535,13 @@
         <v>15</v>
       </c>
       <c r="B25">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="C25">
         <v>0.63</v>
       </c>
       <c r="D25">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="I25" t="s">
         <v>15</v>
@@ -8577,10 +8574,10 @@
         <v>0.03</v>
       </c>
       <c r="AA25">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="AB25">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="AG25" t="s">
         <v>15</v>
@@ -8668,7 +8665,7 @@
         <v>20</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9" t="s">
@@ -8690,7 +8687,7 @@
         <v>20</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q27" s="9"/>
       <c r="R27" s="9" t="s">
@@ -8712,7 +8709,7 @@
         <v>20</v>
       </c>
       <c r="X27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9" t="s">
@@ -8734,7 +8731,7 @@
         <v>20</v>
       </c>
       <c r="AF27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9" t="s">
@@ -8756,42 +8753,42 @@
         <v>20</v>
       </c>
       <c r="AN27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B28" s="7">
-        <v>-0.13</v>
+        <v>-0.12</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>138</v>
+        <v>227</v>
       </c>
       <c r="D28" s="7">
-        <v>-1.05</v>
+        <v>-1.01</v>
       </c>
       <c r="E28" s="7">
-        <v>0.28999999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="F28">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="G28">
         <v>100</v>
       </c>
       <c r="H28">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J28" s="26">
         <v>-0.1</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="L28" s="26">
         <v>-1.18</v>
@@ -8809,13 +8806,13 @@
         <v>5</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R28" s="26">
         <v>-0.08</v>
       </c>
       <c r="S28" s="27" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="T28" s="26">
         <v>-0.57999999999999996</v>
@@ -8833,22 +8830,22 @@
         <v>1</v>
       </c>
       <c r="Y28" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z28" s="7">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AA28" s="17" t="s">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="AB28" s="7">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="AC28" s="7">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="AD28" s="5">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AE28" s="5">
         <v>18</v>
@@ -8857,13 +8854,13 @@
         <v>22</v>
       </c>
       <c r="AG28" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AH28" s="7">
         <v>-0.01</v>
       </c>
       <c r="AI28" s="17" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="AJ28" s="7">
         <v>-7.0000000000000007E-2</v>
@@ -8883,19 +8880,19 @@
     </row>
     <row r="29" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B29" s="13">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>139</v>
+        <v>228</v>
       </c>
       <c r="D29" s="13">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="E29" s="13">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="F29" s="15">
         <v>255</v>
@@ -8907,13 +8904,13 @@
         <v>22</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="J29" s="13">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="L29" s="13">
         <v>0.75</v>
@@ -8931,13 +8928,13 @@
         <v>39</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="R29" s="13">
         <v>0.06</v>
       </c>
       <c r="S29" s="14" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="T29" s="13">
         <v>0.47</v>
@@ -8955,22 +8952,22 @@
         <v>44</v>
       </c>
       <c r="Y29" s="13" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="Z29" s="15">
-        <v>-0.08</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AA29" s="16" t="s">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="AB29" s="15">
-        <v>-0.78</v>
+        <v>-0.69</v>
       </c>
       <c r="AC29" s="15">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="AD29" s="13">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="AE29" s="13">
         <v>30</v>
@@ -8979,13 +8976,13 @@
         <v>40</v>
       </c>
       <c r="AG29" s="13" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="AH29" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AI29" s="16" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="AJ29" s="15">
         <v>0.48</v>
@@ -9022,7 +9019,7 @@
   <dimension ref="A1:AN35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9036,23 +9033,23 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>198</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9129,7 +9126,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2419.2800000000002</v>
+        <v>2739.86</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -9147,13 +9144,13 @@
         <v>6</v>
       </c>
       <c r="R7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="Z7">
-        <v>2191.29</v>
+        <v>2188.0700000000002</v>
       </c>
       <c r="AA7" t="s">
         <v>7</v>
@@ -9173,10 +9170,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="5">
-        <v>1.1499999999999999</v>
+        <v>1.31</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>8</v>
@@ -9185,25 +9182,25 @@
         <v>1.38</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="R8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Z8" s="4">
-        <v>8.57</v>
+        <v>7.91</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AB8" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="AG8" s="5" t="s">
         <v>8</v>
@@ -9212,7 +9209,7 @@
         <v>2.9</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
@@ -9344,13 +9341,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="C11">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="D11" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" s="4"/>
       <c r="I11" t="s">
@@ -9369,13 +9366,13 @@
         <v>13</v>
       </c>
       <c r="R11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U11" s="4"/>
       <c r="Y11" t="s">
@@ -9411,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D12">
         <v>106</v>
@@ -9432,13 +9429,13 @@
         <v>14</v>
       </c>
       <c r="R12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y12" t="s">
         <v>14</v>
@@ -9470,13 +9467,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="C13">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="D13">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
@@ -9494,25 +9491,25 @@
         <v>15</v>
       </c>
       <c r="R13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y13" t="s">
         <v>15</v>
       </c>
       <c r="Z13">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="AA13">
         <v>0.39</v>
       </c>
       <c r="AB13">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="AG13" t="s">
         <v>15</v>
@@ -9600,7 +9597,7 @@
         <v>20</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9" t="s">
@@ -9622,7 +9619,7 @@
         <v>20</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q15" s="9"/>
       <c r="R15" s="9" t="s">
@@ -9644,7 +9641,7 @@
         <v>20</v>
       </c>
       <c r="X15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9" t="s">
@@ -9666,7 +9663,7 @@
         <v>20</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AG15" s="9"/>
       <c r="AH15" s="9" t="s">
@@ -9688,42 +9685,42 @@
         <v>20</v>
       </c>
       <c r="AN15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>-0.04</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="D16">
-        <v>-0.25</v>
+        <v>-0.26</v>
       </c>
       <c r="E16">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="F16">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G16">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H16" s="5">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J16" s="28">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="L16" s="28">
         <v>-0.41</v>
@@ -9741,61 +9738,61 @@
         <v>19</v>
       </c>
       <c r="Q16" s="26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="W16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y16" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z16" s="5">
         <v>0</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="AB16" s="5">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="AC16" s="5">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="AD16" s="5">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="AE16" s="5">
+        <v>37</v>
+      </c>
+      <c r="AF16" s="5">
         <v>47</v>
       </c>
-      <c r="AF16" s="5">
+      <c r="AG16" s="26" t="s">
         <v>37</v>
-      </c>
-      <c r="AG16" s="26" t="s">
-        <v>40</v>
       </c>
       <c r="AH16" s="28">
         <v>0.13</v>
       </c>
       <c r="AI16" s="10" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="AJ16" s="28">
         <v>1.1399999999999999</v>
@@ -9815,37 +9812,37 @@
     </row>
     <row r="17" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B17" s="13">
-        <v>-0.26</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>158</v>
+        <v>235</v>
       </c>
       <c r="D17" s="13">
-        <v>-1.07</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="E17" s="13">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="F17" s="15">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G17" s="15">
+        <v>94</v>
+      </c>
+      <c r="H17" s="13">
         <v>18</v>
       </c>
-      <c r="H17" s="13">
-        <v>94</v>
-      </c>
       <c r="I17" s="13" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="J17" s="13">
         <v>0.19</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="L17" s="13">
         <v>1.17</v>
@@ -9863,75 +9860,75 @@
         <v>3</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="R17" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S17" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T17" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U17" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="W17" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X17" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y17" s="29" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="Z17" s="29">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="AA17" s="30" t="s">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="AB17" s="29">
-        <v>2.93</v>
+        <v>2.81</v>
       </c>
       <c r="AC17" s="29">
-        <v>4.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD17" s="29">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AE17" s="29">
+        <v>12</v>
+      </c>
+      <c r="AF17" s="29">
         <v>14</v>
       </c>
-      <c r="AF17" s="29">
-        <v>12</v>
-      </c>
-      <c r="AG17" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH17" s="13">
+      <c r="AG17" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH17" s="29">
         <v>-0.42</v>
       </c>
-      <c r="AI17" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="AJ17" s="13">
+      <c r="AI17" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ17" s="29">
         <v>-1.7</v>
       </c>
-      <c r="AK17" s="13">
+      <c r="AK17" s="29">
         <v>0.09</v>
       </c>
-      <c r="AL17" s="13">
+      <c r="AL17" s="29">
         <v>5</v>
       </c>
-      <c r="AM17" s="13">
+      <c r="AM17" s="29">
         <v>2</v>
       </c>
-      <c r="AN17" s="13">
+      <c r="AN17" s="29">
         <v>2</v>
       </c>
     </row>
@@ -9957,7 +9954,7 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>3724.86</v>
+        <v>3808.66</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -9975,13 +9972,13 @@
         <v>6</v>
       </c>
       <c r="R19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y19" s="5" t="s">
         <v>6</v>
       </c>
       <c r="Z19">
-        <v>1071.44</v>
+        <v>1069.55</v>
       </c>
       <c r="AA19" t="s">
         <v>7</v>
@@ -9993,7 +9990,7 @@
         <v>77.55</v>
       </c>
       <c r="AI19" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
@@ -10001,10 +9998,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="5">
-        <v>1.82</v>
+        <v>1.61</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>8</v>
@@ -10013,23 +10010,23 @@
         <v>0.01</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="R20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S20" s="5"/>
       <c r="Y20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="Z20">
-        <v>0.56999999999999995</v>
+        <v>0.35</v>
       </c>
       <c r="AA20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AG20" s="5" t="s">
         <v>8</v>
@@ -10038,7 +10035,7 @@
         <v>0.23</v>
       </c>
       <c r="AI20" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -10170,13 +10167,13 @@
         <v>13</v>
       </c>
       <c r="B23">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="C23">
         <v>0.52</v>
       </c>
       <c r="D23" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -10194,13 +10191,13 @@
         <v>13</v>
       </c>
       <c r="R23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y23" t="s">
         <v>13</v>
@@ -10256,13 +10253,13 @@
         <v>14</v>
       </c>
       <c r="R24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y24" t="s">
         <v>14</v>
@@ -10301,7 +10298,7 @@
         <v>0.63</v>
       </c>
       <c r="D25">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="I25" t="s">
         <v>15</v>
@@ -10319,13 +10316,13 @@
         <v>15</v>
       </c>
       <c r="R25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y25" t="s">
         <v>15</v>
@@ -10334,10 +10331,10 @@
         <v>0.03</v>
       </c>
       <c r="AA25">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="AB25">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="AG25" t="s">
         <v>15</v>
@@ -10425,7 +10422,7 @@
         <v>20</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9" t="s">
@@ -10447,7 +10444,7 @@
         <v>20</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q27" s="9"/>
       <c r="R27" s="9" t="s">
@@ -10469,7 +10466,7 @@
         <v>20</v>
       </c>
       <c r="X27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9" t="s">
@@ -10491,7 +10488,7 @@
         <v>20</v>
       </c>
       <c r="AF27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9" t="s">
@@ -10513,42 +10510,42 @@
         <v>20</v>
       </c>
       <c r="AN27" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B28" s="7">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="D28" s="7">
-        <v>0.33</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E28" s="7">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="F28">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G28">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H28" s="5">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J28" s="26">
         <v>-0.04</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="L28" s="26">
         <v>-1.31</v>
@@ -10566,61 +10563,61 @@
         <v>19</v>
       </c>
       <c r="Q28" s="26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="W28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y28" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z28" s="7">
         <v>0.05</v>
       </c>
       <c r="AA28" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AB28" s="7">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="AC28" s="7">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="AD28" s="5">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="AE28" s="5">
+        <v>37</v>
+      </c>
+      <c r="AF28" s="5">
         <v>47</v>
       </c>
-      <c r="AF28" s="5">
+      <c r="AG28" s="26" t="s">
         <v>37</v>
-      </c>
-      <c r="AG28" s="26" t="s">
-        <v>40</v>
       </c>
       <c r="AH28" s="7">
         <v>0.06</v>
       </c>
       <c r="AI28" s="17" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="AJ28" s="7">
         <v>1.1499999999999999</v>
@@ -10640,37 +10637,37 @@
     </row>
     <row r="29" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B29" s="13">
-        <v>-0.26</v>
+        <v>-0.24</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>160</v>
+        <v>237</v>
       </c>
       <c r="D29" s="13">
-        <v>-1.35</v>
+        <v>-1.27</v>
       </c>
       <c r="E29" s="13">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="F29" s="15">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G29" s="15">
+        <v>94</v>
+      </c>
+      <c r="H29" s="13">
         <v>18</v>
       </c>
-      <c r="H29" s="13">
-        <v>94</v>
-      </c>
       <c r="I29" s="13" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="J29" s="13">
         <v>-0.01</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="L29" s="13">
         <v>-0.1</v>
@@ -10688,61 +10685,61 @@
         <v>3</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="R29" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T29" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U29" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V29" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="W29" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X29" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y29" s="13" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="Z29" s="15">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AA29" s="16" t="s">
-        <v>156</v>
+        <v>232</v>
       </c>
       <c r="AB29" s="15">
-        <v>0.75</v>
+        <v>0.59</v>
       </c>
       <c r="AC29" s="15">
-        <v>0.45</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AD29" s="13">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AE29" s="13">
+        <v>12</v>
+      </c>
+      <c r="AF29" s="13">
         <v>14</v>
       </c>
-      <c r="AF29" s="13">
-        <v>12</v>
-      </c>
       <c r="AG29" s="13" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="AH29" s="15">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AI29" s="16" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="AJ29" s="15">
         <v>-0.48</v>
@@ -10762,7 +10759,7 @@
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="Q30" s="28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
@@ -10783,8 +10780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E0BD80-0BB3-E04A-A7FE-1D76F2CD0D51}">
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="T4" workbookViewId="0">
+      <selection activeCell="Y38" sqref="Y38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10798,23 +10795,23 @@
   <sheetData>
     <row r="1" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>201</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="37" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10876,7 +10873,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2437.06</v>
+        <v>2670.88</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -10903,7 +10900,7 @@
         <v>6</v>
       </c>
       <c r="Q7">
-        <v>2151.67</v>
+        <v>2147.0100000000002</v>
       </c>
       <c r="R7" t="s">
         <v>7</v>
@@ -10923,13 +10920,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>8</v>
@@ -10938,10 +10935,10 @@
         <v>1.56</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>8</v>
@@ -10950,22 +10947,22 @@
         <v>3.71</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="Q8" s="5">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>8</v>
@@ -10974,10 +10971,10 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -11026,7 +11023,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
@@ -11037,7 +11034,7 @@
         <v>11</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
@@ -11048,7 +11045,7 @@
         <v>11</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="8"/>
@@ -11059,7 +11056,7 @@
         <v>11</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="8"/>
@@ -11070,7 +11067,7 @@
         <v>11</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y10" s="9"/>
     </row>
@@ -11079,13 +11076,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="C11">
         <v>0.81</v>
       </c>
       <c r="D11" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" t="s">
@@ -11120,7 +11117,7 @@
         <v>0.13</v>
       </c>
       <c r="R11">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="S11">
         <v>61</v>
@@ -11140,7 +11137,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -11152,7 +11149,7 @@
         <v>106</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G12">
         <v>0.11</v>
@@ -11164,7 +11161,7 @@
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -11176,7 +11173,7 @@
         <v>41</v>
       </c>
       <c r="P12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q12">
         <v>0.05</v>
@@ -11188,7 +11185,7 @@
         <v>45</v>
       </c>
       <c r="U12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -11205,13 +11202,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C13">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="D13">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -11244,10 +11241,10 @@
         <v>0.15</v>
       </c>
       <c r="R13">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="S13">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="U13" t="s">
         <v>15</v>
@@ -11305,7 +11302,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>18</v>
@@ -11318,7 +11315,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>18</v>
@@ -11331,7 +11328,7 @@
         <v>10</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>18</v>
@@ -11344,7 +11341,7 @@
         <v>10</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="S15" s="8" t="s">
         <v>18</v>
@@ -11357,7 +11354,7 @@
         <v>10</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X15" s="8" t="s">
         <v>18</v>
@@ -11368,28 +11365,28 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="B16">
-        <v>-0.24</v>
+        <v>-0.2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="D16">
-        <v>-1.36</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="E16">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="G16">
         <v>-0.23</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="I16">
         <v>-0.81</v>
@@ -11398,13 +11395,13 @@
         <v>0.42</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="L16" s="4">
         <v>0.37</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="N16" s="4">
         <v>1.99</v>
@@ -11413,28 +11410,28 @@
         <v>0.05</v>
       </c>
       <c r="P16" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="Q16">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="S16">
-        <v>-0.19</v>
+        <v>-0.24</v>
       </c>
       <c r="T16">
-        <v>0.85</v>
+        <v>0.81</v>
       </c>
       <c r="U16" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="V16">
         <v>0.66</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="X16">
         <v>1.2</v>
@@ -11445,28 +11442,28 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="B17">
-        <v>-0.23</v>
+        <v>-0.21</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="D17">
-        <v>-1.24</v>
+        <v>-1.19</v>
       </c>
       <c r="E17">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="G17">
         <v>-0.11</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="I17">
         <v>-0.43</v>
@@ -11475,13 +11472,13 @@
         <v>0.67</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="L17" s="4">
         <v>0.76</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="N17" s="4">
         <v>3.05</v>
@@ -11490,28 +11487,28 @@
         <v>2E-3</v>
       </c>
       <c r="P17" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="Q17" s="5">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="S17" s="5">
-        <v>1.1599999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T17" s="5">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="U17" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="V17">
         <v>0.8</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="X17">
         <v>1.21</v>
@@ -11522,28 +11519,28 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="B18">
-        <v>-0.3</v>
+        <v>-0.26</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="D18">
-        <v>-1.82</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="E18">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="G18">
         <v>-0.22</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="I18">
         <v>-0.82</v>
@@ -11552,13 +11549,13 @@
         <v>0.41</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="L18" s="4">
         <v>0.62</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="N18" s="4">
         <v>3.35</v>
@@ -11567,28 +11564,28 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="P18" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="Q18" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
       <c r="S18" s="5">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="T18" s="5">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="U18" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="V18">
         <v>0.78</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="X18">
         <v>1.6</v>
@@ -11598,29 +11595,29 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>175</v>
-      </c>
-      <c r="B19">
-        <v>-0.03</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D19">
-        <v>-0.16</v>
-      </c>
-      <c r="E19">
-        <v>0.88</v>
+      <c r="A19" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.86</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="G19">
         <v>-0.11</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="I19">
         <v>-0.4</v>
@@ -11628,44 +11625,44 @@
       <c r="J19">
         <v>0.69</v>
       </c>
-      <c r="K19" t="s">
-        <v>175</v>
-      </c>
-      <c r="L19">
+      <c r="K19" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L19" s="5">
         <v>0.37</v>
       </c>
-      <c r="M19" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N19">
+      <c r="M19" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="N19" s="5">
         <v>1.74</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="5">
         <v>0.08</v>
       </c>
       <c r="P19" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="5">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>204</v>
+        <v>248</v>
       </c>
       <c r="S19" s="5">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="T19" s="5">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="V19" s="5">
         <v>0.87</v>
       </c>
       <c r="W19" s="11" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="X19" s="5">
         <v>1.86</v>
@@ -11676,28 +11673,28 @@
     </row>
     <row r="20" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="B20" s="22">
-        <v>-0.79</v>
+        <v>-0.74</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="D20" s="22">
-        <v>-3.04</v>
+        <v>-2.88</v>
       </c>
       <c r="E20" s="22">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="G20" s="20">
         <v>-0.47</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="I20" s="20">
         <v>-1.64</v>
@@ -11706,13 +11703,13 @@
         <v>0.1</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="L20" s="22">
         <v>0.62</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="N20" s="22">
         <v>2.04</v>
@@ -11721,28 +11718,28 @@
         <v>0.04</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="20">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="R20" s="21" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="S20" s="20">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="T20" s="20">
-        <v>0.28000000000000003</v>
+        <v>0.31</v>
       </c>
       <c r="U20" s="24" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="V20" s="24">
         <v>0.6</v>
       </c>
       <c r="W20" s="25" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="X20" s="24">
         <v>1.1399999999999999</v>
@@ -11752,29 +11749,29 @@
       </c>
     </row>
     <row r="21" spans="1:25" s="15" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="B21" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D21" s="15">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="E21" s="15">
-        <v>0.27</v>
+      <c r="A21" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D21" s="13">
+        <v>0.69</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0.49</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="G21" s="15">
         <v>0.02</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="I21" s="15">
         <v>0.55000000000000004</v>
@@ -11783,13 +11780,13 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="L21" s="29">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="N21" s="29">
         <v>-2.9</v>
@@ -11798,28 +11795,28 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="15">
         <v>-0.03</v>
       </c>
       <c r="R21" s="16" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="S21" s="15">
-        <v>-1.1200000000000001</v>
+        <v>-1.04</v>
       </c>
       <c r="T21" s="15">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="V21" s="15">
         <v>-0.23</v>
       </c>
       <c r="W21" s="16" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="X21" s="15">
         <v>-1.4</v>
@@ -11850,7 +11847,7 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>3533.69</v>
+        <v>3683.35</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -11859,7 +11856,7 @@
         <v>6</v>
       </c>
       <c r="G23">
-        <v>915.15</v>
+        <v>912.54</v>
       </c>
       <c r="H23" t="s">
         <v>7</v>
@@ -11868,7 +11865,7 @@
         <v>6</v>
       </c>
       <c r="L23">
-        <v>1522.54</v>
+        <v>1522.49</v>
       </c>
       <c r="M23" t="s">
         <v>7</v>
@@ -11877,7 +11874,7 @@
         <v>6</v>
       </c>
       <c r="Q23">
-        <v>1041.78</v>
+        <v>1039.19</v>
       </c>
       <c r="R23" t="s">
         <v>7</v>
@@ -11886,10 +11883,10 @@
         <v>6</v>
       </c>
       <c r="V23">
-        <v>71.040000000000006</v>
+        <v>73.63</v>
       </c>
       <c r="W23" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
@@ -11897,25 +11894,25 @@
         <v>8</v>
       </c>
       <c r="B24">
-        <v>1.03</v>
+        <v>0.99</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="D24" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G24">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="H24" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="I24" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>8</v>
@@ -11924,34 +11921,34 @@
         <v>0.72</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="P24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="Q24">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="R24" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="S24" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="U24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="V24">
-        <v>1.41</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W24" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="X24" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
@@ -12000,7 +11997,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="8"/>
@@ -12011,7 +12008,7 @@
         <v>11</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="8"/>
@@ -12022,7 +12019,7 @@
         <v>11</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O26" s="9"/>
       <c r="P26" s="8"/>
@@ -12033,7 +12030,7 @@
         <v>11</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T26" s="9"/>
       <c r="U26" s="8"/>
@@ -12044,7 +12041,7 @@
         <v>11</v>
       </c>
       <c r="X26" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y26" s="9"/>
     </row>
@@ -12059,7 +12056,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="D27" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -12089,10 +12086,10 @@
         <v>13</v>
       </c>
       <c r="Q27">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="R27">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="S27">
         <v>61</v>
@@ -12104,7 +12101,7 @@
         <v>0.04</v>
       </c>
       <c r="W27">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="X27">
         <v>11</v>
@@ -12112,7 +12109,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -12124,7 +12121,7 @@
         <v>106</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -12136,7 +12133,7 @@
         <v>22</v>
       </c>
       <c r="K28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -12148,19 +12145,19 @@
         <v>41</v>
       </c>
       <c r="P28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q28">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="R28">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="S28">
         <v>45</v>
       </c>
       <c r="U28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -12184,7 +12181,7 @@
         <v>0.62</v>
       </c>
       <c r="D29">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F29" t="s">
         <v>15</v>
@@ -12214,13 +12211,13 @@
         <v>15</v>
       </c>
       <c r="Q29">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="R29">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="S29">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="U29" t="s">
         <v>15</v>
@@ -12277,7 +12274,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D31" s="32" t="s">
         <v>18</v>
@@ -12289,7 +12286,7 @@
         <v>10</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I31" s="32" t="s">
         <v>18</v>
@@ -12301,7 +12298,7 @@
         <v>10</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N31" s="32" t="s">
         <v>18</v>
@@ -12313,7 +12310,7 @@
         <v>10</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="S31" s="32" t="s">
         <v>18</v>
@@ -12325,7 +12322,7 @@
         <v>10</v>
       </c>
       <c r="W31" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X31" s="32" t="s">
         <v>18</v>
@@ -12336,467 +12333,479 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="B32" s="7">
-        <v>-0.03</v>
+        <v>0.04</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="D32" s="7">
-        <v>-0.13</v>
+        <v>0.21</v>
       </c>
       <c r="E32" s="7">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="G32" s="7">
-        <v>-0.01</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="I32" s="7">
-        <v>-0.05</v>
+        <v>-0.67</v>
       </c>
       <c r="J32" s="7">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="L32" s="26">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.06</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="N32" s="26">
-        <v>-0.94</v>
+        <v>-0.84</v>
       </c>
       <c r="O32" s="26">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="Q32" s="7">
-        <v>0.14000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="R32" s="17" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="S32" s="7">
-        <v>0.79</v>
+        <v>0.48</v>
       </c>
       <c r="T32" s="7">
-        <v>0.43</v>
+        <v>0.63</v>
       </c>
       <c r="U32" s="7" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="V32" s="7">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="W32" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="X32" s="7">
+        <v>-0.43</v>
+      </c>
+      <c r="Y32" s="7">
         <v>0.67</v>
-      </c>
-      <c r="W32" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="X32" s="7">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="Y32" s="7">
-        <v>0.27</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="B33" s="24">
-        <v>-0.13</v>
+        <v>-0.09</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="D33" s="24">
-        <v>-0.61</v>
+        <v>-0.48</v>
       </c>
       <c r="E33" s="24">
-        <v>0.54</v>
+        <v>0.63</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="G33" s="20">
-        <v>-0.11</v>
+        <v>-0.15</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="I33" s="20">
-        <v>-1.05</v>
+        <v>-1.83</v>
       </c>
       <c r="J33" s="20">
-        <v>0.28999999999999998</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="L33" s="24">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M33" s="25" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="N33" s="24">
+        <v>0.19</v>
+      </c>
+      <c r="O33" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="P33" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q33" s="24">
         <v>0.08</v>
       </c>
-      <c r="O33" s="24">
-        <v>0.93</v>
-      </c>
-      <c r="P33" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q33" s="24">
-        <v>0.14000000000000001</v>
-      </c>
       <c r="R33" s="25" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="S33" s="24">
-        <v>0.79</v>
+        <v>0.51</v>
       </c>
       <c r="T33" s="24">
-        <v>0.43</v>
+        <v>0.61</v>
       </c>
       <c r="U33" s="20" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="V33" s="20">
-        <v>1.3</v>
+        <v>0.32</v>
       </c>
       <c r="W33" s="21" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="X33" s="20">
-        <v>1.78</v>
+        <v>1.24</v>
       </c>
       <c r="Y33" s="20">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="B34" s="24">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="D34" s="24">
-        <v>-0.44</v>
+        <v>-0.18</v>
       </c>
       <c r="E34" s="24">
-        <v>0.66</v>
+        <v>0.86</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="G34" s="24">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="I34" s="24">
-        <v>0.02</v>
+        <v>-0.67</v>
       </c>
       <c r="J34" s="24">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="L34" s="24">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="M34" s="25" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="N34" s="24">
-        <v>-0.43</v>
+        <v>-0.3</v>
       </c>
       <c r="O34" s="24">
-        <v>0.67</v>
+        <v>0.76</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="Q34" s="24">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="R34" s="25" t="s">
-        <v>233</v>
+        <v>70</v>
       </c>
       <c r="S34" s="24">
-        <v>0.56000000000000005</v>
+        <v>0.21</v>
       </c>
       <c r="T34" s="24">
-        <v>0.56999999999999995</v>
+        <v>0.83</v>
       </c>
       <c r="U34" s="24" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="V34" s="24">
-        <v>0.8</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="W34" s="25" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="X34" s="24">
-        <v>1.51</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Y34" s="24">
-        <v>0.14000000000000001</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="B35" s="20">
-        <v>-0.32</v>
+        <v>-0.27</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="D35" s="20">
-        <v>-1.82</v>
+        <v>-1.73</v>
       </c>
       <c r="E35" s="20">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="G35" s="24">
-        <v>-0.01</v>
+        <v>-0.06</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>165</v>
+        <v>258</v>
       </c>
       <c r="I35" s="24">
+        <v>-0.68</v>
+      </c>
+      <c r="J35" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="K35" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="L35" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="M35" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="N35" s="24">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O35" s="24">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P35" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q35" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="R35" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="S35" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="T35" s="24">
+        <v>0.93</v>
+      </c>
+      <c r="U35" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="V35" s="24">
         <v>-0.13</v>
       </c>
-      <c r="J35" s="24">
-        <v>0.89</v>
-      </c>
-      <c r="K35" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="L35" s="24">
-        <v>0.04</v>
-      </c>
-      <c r="M35" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="N35" s="24">
-        <v>0.45</v>
-      </c>
-      <c r="O35" s="24">
-        <v>0.66</v>
-      </c>
-      <c r="P35" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q35" s="24">
-        <v>0.08</v>
-      </c>
-      <c r="R35" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="S35" s="24">
-        <v>0.47</v>
-      </c>
-      <c r="T35" s="24">
-        <v>0.64</v>
-      </c>
-      <c r="U35" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="V35" s="24">
-        <v>0.56999999999999995</v>
-      </c>
       <c r="W35" s="25" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="X35" s="24">
-        <v>1.1100000000000001</v>
+        <v>-0.59</v>
       </c>
       <c r="Y35" s="24">
-        <v>0.27</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="B36" s="24">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="D36" s="24">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="E36" s="24">
-        <v>0.79</v>
+        <v>0.66</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="G36" s="20">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="I36" s="20">
-        <v>0.72</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J36" s="20">
-        <v>0.47</v>
+        <v>0.77</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="L36" s="24">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="M36" s="25" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="N36" s="24">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="O36" s="24">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="P36" s="20" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="Q36" s="24">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="R36" s="25" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="S36" s="24">
-        <v>0.54</v>
+        <v>0.2</v>
       </c>
       <c r="T36" s="24">
-        <v>0.59</v>
+        <v>0.84</v>
       </c>
       <c r="U36" s="20" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="V36" s="24">
-        <v>0.47</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="W36" s="25" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="X36" s="24">
-        <v>0.86</v>
+        <v>-0.4</v>
       </c>
       <c r="Y36" s="24">
-        <v>0.39</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="37" spans="1:25" s="15" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="B37" s="15">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="D37" s="15">
-        <v>0.53</v>
+        <v>0.26</v>
       </c>
       <c r="E37" s="15">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="G37" s="15">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="I37" s="15">
-        <v>-0.28000000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="J37" s="15">
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="L37" s="15">
         <v>0</v>
       </c>
       <c r="M37" s="16" t="s">
-        <v>229</v>
+        <v>169</v>
       </c>
       <c r="N37" s="15">
-        <v>0.16</v>
+        <v>-0.03</v>
       </c>
       <c r="O37" s="15">
-        <v>0.87</v>
+        <v>0.97</v>
       </c>
       <c r="P37" s="15" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="Q37" s="15">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="R37" s="16" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="S37" s="15">
-        <v>-0.4</v>
+        <v>0.51</v>
       </c>
       <c r="T37" s="15">
-        <v>0.69</v>
+        <v>0.61</v>
       </c>
       <c r="U37" s="15" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="V37" s="15">
-        <v>-0.25</v>
+        <v>0.01</v>
       </c>
       <c r="W37" s="16" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="X37" s="15">
-        <v>-1.36</v>
+        <v>0.12</v>
       </c>
       <c r="Y37" s="15">
-        <v>0.18</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4EEFA2-8A1F-044A-B469-72386FBE70C0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ms/final model output and tables/Supplementary_models_S7-S12.xlsx
+++ b/ms/final model output and tables/Supplementary_models_S7-S12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_meta/ms/final model output and tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5444F536-3A21-FE4D-A5AB-A73ADA5C1489}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4F676F-3FF9-DB4E-B1BA-A64A20F5E413}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15380" yWindow="500" windowWidth="38300" windowHeight="19760" activeTab="1" xr2:uid="{CEA959A6-D841-5347-BF8F-13749A5754E5}"/>
+    <workbookView xWindow="220" yWindow="460" windowWidth="38300" windowHeight="19760" activeTab="7" xr2:uid="{CEA959A6-D841-5347-BF8F-13749A5754E5}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="304">
   <si>
     <t>Birds</t>
   </si>
@@ -118,9 +118,6 @@
     <t>k</t>
   </si>
   <si>
-    <t>Experimental</t>
-  </si>
-  <si>
     <t>*doesn't have any observational studies</t>
   </si>
   <si>
@@ -869,6 +866,84 @@
   </si>
   <si>
     <t>-0.13, 0.44</t>
+  </si>
+  <si>
+    <t>S13: Contrast Random Effects Multilevel Models - Score data type</t>
+  </si>
+  <si>
+    <t>Contrast models give the mean estimate for each moderator. Intercept in these models are the rest of the dataset.</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>These models see how score data (scores vs rest of data set) might moderate overall mean differences in personality and variability.</t>
+  </si>
+  <si>
+    <t>p=0.62</t>
+  </si>
+  <si>
+    <t>-0.352, 0.11</t>
+  </si>
+  <si>
+    <t>-0.30, 0.18</t>
+  </si>
+  <si>
+    <t>-0.12, 0.28</t>
+  </si>
+  <si>
+    <t>p=0.04</t>
+  </si>
+  <si>
+    <t>0.02, 0.57</t>
+  </si>
+  <si>
+    <t>-0.57, -0.02</t>
+  </si>
+  <si>
+    <t>p=0.10</t>
+  </si>
+  <si>
+    <t>-0.21, 0.48</t>
+  </si>
+  <si>
+    <t>-0.47, 0.04</t>
+  </si>
+  <si>
+    <t>-0.11, 0.23</t>
+  </si>
+  <si>
+    <t>-0.44, 0.67</t>
+  </si>
+  <si>
+    <t>-0.66, 0.36</t>
+  </si>
+  <si>
+    <t>-0.24, 0.28</t>
+  </si>
+  <si>
+    <t>-0.08, 0.03</t>
+  </si>
+  <si>
+    <t>-0.22, 0.06</t>
+  </si>
+  <si>
+    <t>p=0.17</t>
+  </si>
+  <si>
+    <t>-0.08, 0.08</t>
+  </si>
+  <si>
+    <t>-0.26, 0.05</t>
+  </si>
+  <si>
+    <t>-0.20, 0.36</t>
+  </si>
+  <si>
+    <t>-0.22, 0.15</t>
+  </si>
+  <si>
+    <t>-0.46, 0.28</t>
   </si>
 </sst>
 </file>
@@ -1339,89 +1414,89 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A17"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1433,9 +1508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9948B2D6-0D24-AC4F-B3C7-22D23935FFEB}">
   <dimension ref="A1:AN60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V4" workbookViewId="0">
-      <selection activeCell="AC18" sqref="AC18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1449,23 +1522,23 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -1592,7 +1665,7 @@
         <v>0.17</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D8" s="5"/>
       <c r="I8" s="5" t="s">
@@ -1602,7 +1675,7 @@
         <v>0.68</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>8</v>
@@ -1611,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y8" s="5" t="s">
         <v>8</v>
@@ -1620,7 +1693,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG8" s="5" t="s">
         <v>8</v>
@@ -1629,7 +1702,7 @@
         <v>0.54</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
@@ -1693,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -1822,7 +1895,7 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2002,7 +2075,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>18</v>
@@ -2110,13 +2183,13 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>-0.15</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D16">
         <v>-1.23</v>
@@ -2134,13 +2207,13 @@
         <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J16" s="28">
         <v>0.08</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L16" s="28">
         <v>0.42</v>
@@ -2158,13 +2231,13 @@
         <v>8</v>
       </c>
       <c r="Q16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R16">
         <v>0.23</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T16">
         <v>0.68</v>
@@ -2182,13 +2255,13 @@
         <v>3</v>
       </c>
       <c r="Y16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z16" s="5">
         <v>-0.08</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AB16" s="5">
         <v>-0.28000000000000003</v>
@@ -2206,13 +2279,13 @@
         <v>9</v>
       </c>
       <c r="AG16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH16" s="28">
         <v>0.23</v>
       </c>
       <c r="AI16" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AJ16" s="28">
         <v>0.65</v>
@@ -2232,13 +2305,13 @@
     </row>
     <row r="17" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="13">
         <v>0.08</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D17" s="13">
         <v>0.41</v>
@@ -2256,13 +2329,13 @@
         <v>9</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J17" s="13">
         <v>-0.11</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L17" s="13">
         <v>-0.83</v>
@@ -2280,13 +2353,13 @@
         <v>34</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R17" s="15">
         <v>0.02</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T17" s="15">
         <v>0.05</v>
@@ -2304,13 +2377,13 @@
         <v>41</v>
       </c>
       <c r="Y17" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z17" s="13">
         <v>0.16</v>
       </c>
       <c r="AA17" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AB17" s="13">
         <v>1.07</v>
@@ -2328,13 +2401,13 @@
         <v>52</v>
       </c>
       <c r="AG17" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH17" s="15">
         <v>-0.26</v>
       </c>
       <c r="AI17" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AJ17" s="15">
         <v>-0.74</v>
@@ -2413,7 +2486,7 @@
         <v>52.82</v>
       </c>
       <c r="AI19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
@@ -2424,7 +2497,7 @@
         <v>0.04</v>
       </c>
       <c r="C20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>8</v>
@@ -2433,7 +2506,7 @@
         <v>0.02</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>8</v>
@@ -2442,7 +2515,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y20" s="5" t="s">
         <v>8</v>
@@ -2451,7 +2524,7 @@
         <v>0.32</v>
       </c>
       <c r="AA20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AG20" s="5" t="s">
         <v>8</v>
@@ -2460,7 +2533,7 @@
         <v>0.02</v>
       </c>
       <c r="AI20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -2524,7 +2597,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -2651,7 +2724,7 @@
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>0.37</v>
@@ -2832,7 +2905,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>18</v>
@@ -2940,13 +3013,13 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="7">
         <v>-0.16</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D28" s="7">
         <v>-0.57999999999999996</v>
@@ -2964,13 +3037,13 @@
         <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J28" s="26">
         <v>-0.04</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L28" s="26">
         <v>-0.64</v>
@@ -2988,13 +3061,13 @@
         <v>8</v>
       </c>
       <c r="Q28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R28">
         <v>0.04</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T28">
         <v>0.26</v>
@@ -3012,13 +3085,13 @@
         <v>3</v>
       </c>
       <c r="Y28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z28" s="7">
         <v>0.03</v>
       </c>
       <c r="AA28" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AB28" s="7">
         <v>0.2</v>
@@ -3036,13 +3109,13 @@
         <v>9</v>
       </c>
       <c r="AG28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH28" s="7">
         <v>-0.03</v>
       </c>
       <c r="AI28" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ28" s="7">
         <v>-0.14000000000000001</v>
@@ -3062,13 +3135,13 @@
     </row>
     <row r="29" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="15">
         <v>0.05</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D29" s="15">
         <v>0.2</v>
@@ -3086,13 +3159,13 @@
         <v>9</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J29" s="13">
         <v>0.01</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L29" s="13">
         <v>0.12</v>
@@ -3110,13 +3183,13 @@
         <v>34</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R29" s="15">
         <v>-0.06</v>
       </c>
       <c r="S29" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T29" s="15">
         <v>-0.37</v>
@@ -3134,13 +3207,13 @@
         <v>41</v>
       </c>
       <c r="Y29" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z29" s="15">
         <v>0.05</v>
       </c>
       <c r="AA29" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB29" s="15">
         <v>0.56999999999999995</v>
@@ -3158,13 +3231,13 @@
         <v>52</v>
       </c>
       <c r="AG29" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH29" s="15">
         <v>0.03</v>
       </c>
       <c r="AI29" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AJ29" s="15">
         <v>0.14000000000000001</v>
@@ -3309,23 +3382,23 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -3452,7 +3525,7 @@
         <v>0.01</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>8</v>
@@ -3470,7 +3543,7 @@
         <v>0.03</v>
       </c>
       <c r="S8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y8" s="5" t="s">
         <v>8</v>
@@ -3479,7 +3552,7 @@
         <v>0.93</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG8" s="5" t="s">
         <v>8</v>
@@ -3488,7 +3561,7 @@
         <v>0.02</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
@@ -3969,13 +4042,13 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>-0.13</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16">
         <v>-1.1399999999999999</v>
@@ -3993,13 +4066,13 @@
         <v>43</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J16" s="28">
         <v>-0.05</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L16" s="28">
         <v>-0.3</v>
@@ -4017,13 +4090,13 @@
         <v>43</v>
       </c>
       <c r="Q16" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R16" s="4">
         <v>0.24</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T16" s="4">
         <v>1.74</v>
@@ -4041,7 +4114,7 @@
         <v>42</v>
       </c>
       <c r="Y16" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z16" s="5">
         <v>0.1</v>
@@ -4065,13 +4138,13 @@
         <v>48</v>
       </c>
       <c r="AG16" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH16" s="28">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AI16" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ16" s="28">
         <v>0.87</v>
@@ -4091,13 +4164,13 @@
     </row>
     <row r="17" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="13">
         <v>-0.01</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="13">
         <v>-0.08</v>
@@ -4115,13 +4188,13 @@
         <v>13</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J17" s="13">
         <v>0.26</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L17" s="13">
         <v>1.08</v>
@@ -4139,13 +4212,13 @@
         <v>3</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R17" s="15">
         <v>-0.03</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T17" s="15">
         <v>-0.18</v>
@@ -4163,13 +4236,13 @@
         <v>5</v>
       </c>
       <c r="Y17" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z17" s="13">
         <v>-0.09</v>
       </c>
       <c r="AA17" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AB17" s="13">
         <v>-0.96</v>
@@ -4187,13 +4260,13 @@
         <v>19</v>
       </c>
       <c r="AG17" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AH17" s="15">
         <v>-0.05</v>
       </c>
       <c r="AI17" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AJ17" s="15">
         <v>-0.16</v>
@@ -4272,7 +4345,7 @@
         <v>77.59</v>
       </c>
       <c r="AI19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
@@ -4283,7 +4356,7 @@
         <v>0.06</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>8</v>
@@ -4292,7 +4365,7 @@
         <v>0.13</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>8</v>
@@ -4301,7 +4374,7 @@
         <v>0.06</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y20" s="5" t="s">
         <v>8</v>
@@ -4310,7 +4383,7 @@
         <v>2.23</v>
       </c>
       <c r="AA20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG20" s="5" t="s">
         <v>8</v>
@@ -4319,7 +4392,7 @@
         <v>0.15</v>
       </c>
       <c r="AI20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -4799,13 +4872,13 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="7">
         <v>-0.14000000000000001</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D28" s="7">
         <v>-0.53</v>
@@ -4823,13 +4896,13 @@
         <v>43</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J28" s="26">
         <v>-0.04</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L28" s="26">
         <v>-1.38</v>
@@ -4847,13 +4920,13 @@
         <v>43</v>
       </c>
       <c r="Q28" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R28">
         <v>-0.02</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T28">
         <v>-0.39</v>
@@ -4871,13 +4944,13 @@
         <v>42</v>
       </c>
       <c r="Y28" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z28" s="7">
         <v>0.09</v>
       </c>
       <c r="AA28" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AB28" s="7">
         <v>0.75</v>
@@ -4895,13 +4968,13 @@
         <v>48</v>
       </c>
       <c r="AG28" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH28" s="7">
         <v>0.06</v>
       </c>
       <c r="AI28" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ28" s="7">
         <v>1.1399999999999999</v>
@@ -4921,13 +4994,13 @@
     </row>
     <row r="29" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="13">
         <v>-0.03</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D29" s="13">
         <v>-0.25</v>
@@ -4945,13 +5018,13 @@
         <v>13</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J29" s="13">
         <v>-0.08</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L29" s="13">
         <v>-0.37</v>
@@ -4969,13 +5042,13 @@
         <v>3</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R29" s="15">
         <v>-0.02</v>
       </c>
       <c r="S29" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T29" s="15">
         <v>-0.24</v>
@@ -4993,13 +5066,13 @@
         <v>5</v>
       </c>
       <c r="Y29" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z29" s="15">
         <v>-0.1</v>
       </c>
       <c r="AA29" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB29" s="15">
         <v>-1.49</v>
@@ -5017,13 +5090,13 @@
         <v>19</v>
       </c>
       <c r="AG29" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AH29" s="15">
         <v>-0.08</v>
       </c>
       <c r="AI29" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ29" s="15">
         <v>-0.39</v>
@@ -5516,23 +5589,23 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5659,7 +5732,7 @@
         <v>0.12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>8</v>
@@ -5668,7 +5741,7 @@
         <v>0.36</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>8</v>
@@ -5677,7 +5750,7 @@
         <v>0.41</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y8" s="5" t="s">
         <v>8</v>
@@ -5686,7 +5759,7 @@
         <v>1.99</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG8" s="5" t="s">
         <v>8</v>
@@ -5695,7 +5768,7 @@
         <v>0.1</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
@@ -6176,13 +6249,13 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>-0.16</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D16">
         <v>-1.1499999999999999</v>
@@ -6200,13 +6273,13 @@
         <v>34</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J16">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L16">
         <v>-0.4</v>
@@ -6224,13 +6297,13 @@
         <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R16">
         <v>0.15</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T16">
         <v>0.76</v>
@@ -6248,13 +6321,13 @@
         <v>23</v>
       </c>
       <c r="Y16" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z16" s="5">
         <v>0.16</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AB16" s="5">
         <v>0.96</v>
@@ -6272,13 +6345,13 @@
         <v>26</v>
       </c>
       <c r="AG16" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH16">
         <v>0.08</v>
       </c>
       <c r="AI16" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ16">
         <v>0.92</v>
@@ -6298,13 +6371,13 @@
     </row>
     <row r="17" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="13">
         <v>0.09</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D17" s="13">
         <v>0.35</v>
@@ -6322,13 +6395,13 @@
         <v>16</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J17" s="13">
         <v>0.05</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L17" s="13">
         <v>0.6</v>
@@ -6346,13 +6419,13 @@
         <v>28</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R17" s="15">
         <v>0.18</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T17" s="15">
         <v>0.64</v>
@@ -6370,13 +6443,13 @@
         <v>21</v>
       </c>
       <c r="Y17" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z17" s="13">
         <v>-0.15</v>
       </c>
       <c r="AA17" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AB17" s="13">
         <v>-1.41</v>
@@ -6394,13 +6467,13 @@
         <v>36</v>
       </c>
       <c r="AG17" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH17" s="15">
         <v>-0.05</v>
       </c>
       <c r="AI17" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ17" s="15">
         <v>-0.32</v>
@@ -6479,7 +6552,7 @@
         <v>77.27</v>
       </c>
       <c r="AI19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
@@ -6490,7 +6563,7 @@
         <v>0.52</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>8</v>
@@ -6499,7 +6572,7 @@
         <v>2.39</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>8</v>
@@ -6508,7 +6581,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y20" s="5" t="s">
         <v>8</v>
@@ -6526,7 +6599,7 @@
         <v>0.42</v>
       </c>
       <c r="AI20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -7006,13 +7079,13 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="7">
         <v>-0.1</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D28" s="7">
         <v>-0.87</v>
@@ -7030,13 +7103,13 @@
         <v>34</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J28" s="18">
         <v>-0.09</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L28" s="18">
         <v>-2.11</v>
@@ -7054,13 +7127,13 @@
         <v>17</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R28" s="26">
         <v>0.01</v>
       </c>
       <c r="S28" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T28" s="26">
         <v>0.1</v>
@@ -7078,13 +7151,13 @@
         <v>23</v>
       </c>
       <c r="Y28" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z28" s="7">
         <v>0.11</v>
       </c>
       <c r="AA28" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AB28" s="7">
         <v>0.7</v>
@@ -7102,13 +7175,13 @@
         <v>26</v>
       </c>
       <c r="AG28" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH28" s="7">
         <v>0.06</v>
       </c>
       <c r="AI28" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ28" s="7">
         <v>1.18</v>
@@ -7128,13 +7201,13 @@
     </row>
     <row r="29" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" s="13">
         <v>0.14000000000000001</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D29" s="13">
         <v>0.72</v>
@@ -7152,13 +7225,13 @@
         <v>16</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J29" s="13">
         <v>0.08</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L29" s="13">
         <v>1.55</v>
@@ -7176,13 +7249,13 @@
         <v>28</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R29" s="13">
         <v>-0.04</v>
       </c>
       <c r="S29" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T29" s="13">
         <v>-0.54</v>
@@ -7200,13 +7273,13 @@
         <v>21</v>
       </c>
       <c r="Y29" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z29" s="15">
         <v>-0.09</v>
       </c>
       <c r="AA29" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB29" s="15">
         <v>-1.07</v>
@@ -7224,13 +7297,13 @@
         <v>36</v>
       </c>
       <c r="AG29" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH29" s="15">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AI29" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ29" s="15">
         <v>-0.65</v>
@@ -7274,23 +7347,23 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7417,7 +7490,7 @@
         <v>0.01</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>8</v>
@@ -7426,7 +7499,7 @@
         <v>0.15</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>8</v>
@@ -7435,7 +7508,7 @@
         <v>0.1</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>8</v>
@@ -7447,7 +7520,7 @@
         <v>25</v>
       </c>
       <c r="AB8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG8" s="5" t="s">
         <v>8</v>
@@ -7456,7 +7529,7 @@
         <v>2.9</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
@@ -7937,13 +8010,13 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>-0.13</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D16">
         <v>-0.92</v>
@@ -7961,13 +8034,13 @@
         <v>29</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J16">
         <v>-0.06</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L16">
         <v>-0.35</v>
@@ -7985,13 +8058,13 @@
         <v>5</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R16">
         <v>0.31</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T16">
         <v>1.2</v>
@@ -8009,13 +8082,13 @@
         <v>1</v>
       </c>
       <c r="Y16" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z16" s="5">
         <v>0.24</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB16" s="5">
         <v>1.38</v>
@@ -8033,13 +8106,13 @@
         <v>22</v>
       </c>
       <c r="AG16" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH16">
         <v>-0.28999999999999998</v>
       </c>
       <c r="AI16" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ16">
         <v>-1.24</v>
@@ -8059,13 +8132,13 @@
     </row>
     <row r="17" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" s="13">
         <v>-0.01</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D17" s="13">
         <v>-0.08</v>
@@ -8083,13 +8156,13 @@
         <v>22</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J17" s="13">
         <v>0.06</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L17" s="13">
         <v>0.39</v>
@@ -8107,13 +8180,13 @@
         <v>39</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R17" s="15">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T17" s="15">
         <v>-0.31</v>
@@ -8131,13 +8204,13 @@
         <v>44</v>
       </c>
       <c r="Y17" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z17" s="29">
         <v>-0.3</v>
       </c>
       <c r="AA17" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB17" s="29">
         <v>-2.2599999999999998</v>
@@ -8155,13 +8228,13 @@
         <v>40</v>
       </c>
       <c r="AG17" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH17" s="29">
         <v>0.42</v>
       </c>
       <c r="AI17" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ17" s="29">
         <v>1.7</v>
@@ -8240,7 +8313,7 @@
         <v>77.55</v>
       </c>
       <c r="AI19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
@@ -8251,7 +8324,7 @@
         <v>0.81</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>8</v>
@@ -8260,7 +8333,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>8</v>
@@ -8269,7 +8342,7 @@
         <v>0.23</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y20" s="5" t="s">
         <v>8</v>
@@ -8278,7 +8351,7 @@
         <v>0.47</v>
       </c>
       <c r="AA20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG20" s="5" t="s">
         <v>8</v>
@@ -8287,7 +8360,7 @@
         <v>0.23</v>
       </c>
       <c r="AI20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -8767,13 +8840,13 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="7">
         <v>-0.12</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D28" s="7">
         <v>-1.01</v>
@@ -8791,13 +8864,13 @@
         <v>29</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J28" s="26">
         <v>-0.1</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L28" s="26">
         <v>-1.18</v>
@@ -8815,13 +8888,13 @@
         <v>5</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R28" s="26">
         <v>-0.08</v>
       </c>
       <c r="S28" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T28" s="26">
         <v>-0.57999999999999996</v>
@@ -8839,13 +8912,13 @@
         <v>1</v>
       </c>
       <c r="Y28" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z28" s="7">
         <v>0.1</v>
       </c>
       <c r="AA28" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AB28" s="7">
         <v>0.68</v>
@@ -8863,13 +8936,13 @@
         <v>22</v>
       </c>
       <c r="AG28" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH28" s="7">
         <v>-0.01</v>
       </c>
       <c r="AI28" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ28" s="7">
         <v>-7.0000000000000007E-2</v>
@@ -8889,13 +8962,13 @@
     </row>
     <row r="29" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29" s="13">
         <v>0.15</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D29" s="13">
         <v>0.9</v>
@@ -8913,13 +8986,13 @@
         <v>22</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J29" s="13">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L29" s="13">
         <v>0.75</v>
@@ -8937,13 +9010,13 @@
         <v>39</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R29" s="13">
         <v>0.06</v>
       </c>
       <c r="S29" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T29" s="13">
         <v>0.47</v>
@@ -8961,13 +9034,13 @@
         <v>44</v>
       </c>
       <c r="Y29" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z29" s="15">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AA29" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AB29" s="15">
         <v>-0.69</v>
@@ -8985,13 +9058,13 @@
         <v>40</v>
       </c>
       <c r="AG29" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH29" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AI29" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ29" s="15">
         <v>0.48</v>
@@ -9028,7 +9101,7 @@
   <dimension ref="A1:AN35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB19" sqref="AB19"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9042,23 +9115,23 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9182,7 +9255,7 @@
         <v>1.31</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>8</v>
@@ -9191,7 +9264,7 @@
         <v>1.38</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>8</v>
@@ -9206,10 +9279,10 @@
         <v>7.91</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG8" s="5" t="s">
         <v>8</v>
@@ -9218,7 +9291,7 @@
         <v>2.9</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
@@ -9699,13 +9772,13 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>-0.04</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D16">
         <v>-0.26</v>
@@ -9723,13 +9796,13 @@
         <v>32</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J16" s="28">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L16" s="28">
         <v>-0.41</v>
@@ -9747,7 +9820,7 @@
         <v>19</v>
       </c>
       <c r="Q16" s="26" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="R16" t="s">
         <v>26</v>
@@ -9771,13 +9844,13 @@
         <v>26</v>
       </c>
       <c r="Y16" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z16" s="5">
         <v>0</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB16" s="5">
         <v>0.04</v>
@@ -9795,13 +9868,13 @@
         <v>47</v>
       </c>
       <c r="AG16" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH16" s="28">
         <v>0.13</v>
       </c>
       <c r="AI16" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AJ16" s="28">
         <v>1.1399999999999999</v>
@@ -9821,13 +9894,13 @@
     </row>
     <row r="17" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="13">
         <v>-0.28000000000000003</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D17" s="13">
         <v>-1.1499999999999999</v>
@@ -9845,13 +9918,13 @@
         <v>18</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J17" s="13">
         <v>0.19</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L17" s="13">
         <v>1.17</v>
@@ -9869,7 +9942,7 @@
         <v>3</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R17" s="15" t="s">
         <v>26</v>
@@ -9893,13 +9966,13 @@
         <v>26</v>
       </c>
       <c r="Y17" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z17" s="29">
         <v>0.38</v>
       </c>
       <c r="AA17" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AB17" s="29">
         <v>2.81</v>
@@ -9917,13 +9990,13 @@
         <v>14</v>
       </c>
       <c r="AG17" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH17" s="29">
         <v>-0.42</v>
       </c>
       <c r="AI17" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AJ17" s="29">
         <v>-1.7</v>
@@ -9999,7 +10072,7 @@
         <v>77.55</v>
       </c>
       <c r="AI19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
@@ -10010,7 +10083,7 @@
         <v>1.61</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>8</v>
@@ -10019,7 +10092,7 @@
         <v>0.01</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>8</v>
@@ -10035,7 +10108,7 @@
         <v>0.35</v>
       </c>
       <c r="AA20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG20" s="5" t="s">
         <v>8</v>
@@ -10044,7 +10117,7 @@
         <v>0.23</v>
       </c>
       <c r="AI20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -10524,13 +10597,13 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="7">
         <v>0.03</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D28" s="7">
         <v>0.28999999999999998</v>
@@ -10548,13 +10621,13 @@
         <v>32</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J28" s="26">
         <v>-0.04</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L28" s="26">
         <v>-1.31</v>
@@ -10572,7 +10645,7 @@
         <v>19</v>
       </c>
       <c r="Q28" s="26" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="R28" t="s">
         <v>26</v>
@@ -10596,13 +10669,13 @@
         <v>26</v>
       </c>
       <c r="Y28" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z28" s="7">
         <v>0.05</v>
       </c>
       <c r="AA28" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB28" s="7">
         <v>0.36</v>
@@ -10620,13 +10693,13 @@
         <v>47</v>
       </c>
       <c r="AG28" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH28" s="7">
         <v>0.06</v>
       </c>
       <c r="AI28" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AJ28" s="7">
         <v>1.1499999999999999</v>
@@ -10646,13 +10719,13 @@
     </row>
     <row r="29" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B29" s="13">
         <v>-0.24</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D29" s="13">
         <v>-1.27</v>
@@ -10670,13 +10743,13 @@
         <v>18</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J29" s="13">
         <v>-0.01</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L29" s="13">
         <v>-0.1</v>
@@ -10694,7 +10767,7 @@
         <v>3</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R29" s="15" t="s">
         <v>26</v>
@@ -10718,13 +10791,13 @@
         <v>26</v>
       </c>
       <c r="Y29" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z29" s="15">
         <v>0.06</v>
       </c>
       <c r="AA29" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB29" s="15">
         <v>0.59</v>
@@ -10742,13 +10815,13 @@
         <v>14</v>
       </c>
       <c r="AG29" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH29" s="15">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AI29" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AJ29" s="15">
         <v>-0.48</v>
@@ -10768,7 +10841,7 @@
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="Q30" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
@@ -10804,23 +10877,23 @@
   <sheetData>
     <row r="1" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="37" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10932,10 +11005,10 @@
         <v>3.2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>8</v>
@@ -10944,10 +11017,10 @@
         <v>1.56</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>8</v>
@@ -10956,10 +11029,10 @@
         <v>3.71</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>8</v>
@@ -10968,10 +11041,10 @@
         <v>1.36</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>8</v>
@@ -10983,7 +11056,7 @@
         <v>24</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -11032,7 +11105,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
@@ -11043,7 +11116,7 @@
         <v>11</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
@@ -11054,7 +11127,7 @@
         <v>11</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="8"/>
@@ -11065,7 +11138,7 @@
         <v>11</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="8"/>
@@ -11076,7 +11149,7 @@
         <v>11</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y10" s="9"/>
     </row>
@@ -11146,7 +11219,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -11158,7 +11231,7 @@
         <v>106</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12">
         <v>0.11</v>
@@ -11170,7 +11243,7 @@
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -11182,7 +11255,7 @@
         <v>41</v>
       </c>
       <c r="P12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q12">
         <v>0.05</v>
@@ -11194,7 +11267,7 @@
         <v>45</v>
       </c>
       <c r="U12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -11311,7 +11384,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>18</v>
@@ -11324,7 +11397,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>18</v>
@@ -11337,7 +11410,7 @@
         <v>10</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>18</v>
@@ -11350,7 +11423,7 @@
         <v>10</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S15" s="8" t="s">
         <v>18</v>
@@ -11363,7 +11436,7 @@
         <v>10</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X15" s="8" t="s">
         <v>18</v>
@@ -11374,13 +11447,13 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16">
         <v>-0.2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D16">
         <v>-1.1599999999999999</v>
@@ -11389,13 +11462,13 @@
         <v>0.25</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G16">
         <v>-0.23</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I16">
         <v>-0.81</v>
@@ -11404,13 +11477,13 @@
         <v>0.42</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L16" s="4">
         <v>0.37</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N16" s="4">
         <v>1.99</v>
@@ -11419,13 +11492,13 @@
         <v>0.05</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q16">
         <v>-0.05</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S16">
         <v>-0.24</v>
@@ -11434,13 +11507,13 @@
         <v>0.81</v>
       </c>
       <c r="U16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V16">
         <v>0.66</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X16">
         <v>1.2</v>
@@ -11451,13 +11524,13 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B17">
         <v>-0.21</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D17">
         <v>-1.19</v>
@@ -11466,13 +11539,13 @@
         <v>0.23</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G17">
         <v>-0.11</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I17">
         <v>-0.43</v>
@@ -11481,13 +11554,13 @@
         <v>0.67</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L17" s="4">
         <v>0.76</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N17" s="4">
         <v>3.05</v>
@@ -11496,13 +11569,13 @@
         <v>2E-3</v>
       </c>
       <c r="P17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q17" s="5">
         <v>0.23</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S17" s="5">
         <v>1.1000000000000001</v>
@@ -11511,13 +11584,13 @@
         <v>0.27</v>
       </c>
       <c r="U17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V17">
         <v>0.8</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X17">
         <v>1.21</v>
@@ -11528,13 +11601,13 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B18">
         <v>-0.26</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D18">
         <v>-1.1599999999999999</v>
@@ -11543,13 +11616,13 @@
         <v>0.11</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G18">
         <v>-0.22</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I18">
         <v>-0.82</v>
@@ -11558,13 +11631,13 @@
         <v>0.41</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L18" s="4">
         <v>0.62</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N18" s="4">
         <v>3.35</v>
@@ -11573,13 +11646,13 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="5">
         <v>0.27</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S18" s="5">
         <v>1.37</v>
@@ -11588,13 +11661,13 @@
         <v>0.17</v>
       </c>
       <c r="U18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V18">
         <v>0.78</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X18">
         <v>1.6</v>
@@ -11605,13 +11678,13 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B19" s="5">
         <v>0.03</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D19" s="5">
         <v>0.18</v>
@@ -11620,13 +11693,13 @@
         <v>0.86</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G19">
         <v>-0.11</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I19">
         <v>-0.4</v>
@@ -11635,13 +11708,13 @@
         <v>0.69</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L19" s="5">
         <v>0.37</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N19" s="5">
         <v>1.74</v>
@@ -11650,13 +11723,13 @@
         <v>0.08</v>
       </c>
       <c r="P19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="5">
         <v>0.17</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S19" s="5">
         <v>0.82</v>
@@ -11665,13 +11738,13 @@
         <v>0.41</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V19" s="5">
         <v>0.87</v>
       </c>
       <c r="W19" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X19" s="5">
         <v>1.86</v>
@@ -11682,13 +11755,13 @@
     </row>
     <row r="20" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B20" s="22">
         <v>-0.74</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D20" s="22">
         <v>-2.88</v>
@@ -11697,13 +11770,13 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G20" s="20">
         <v>-0.47</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I20" s="20">
         <v>-1.64</v>
@@ -11712,13 +11785,13 @@
         <v>0.1</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L20" s="22">
         <v>0.62</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N20" s="22">
         <v>2.04</v>
@@ -11727,13 +11800,13 @@
         <v>0.04</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q20" s="20">
         <v>0.22</v>
       </c>
       <c r="R20" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S20" s="20">
         <v>1.02</v>
@@ -11742,13 +11815,13 @@
         <v>0.31</v>
       </c>
       <c r="U20" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V20" s="24">
         <v>0.6</v>
       </c>
       <c r="W20" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X20" s="24">
         <v>1.1399999999999999</v>
@@ -11759,13 +11832,13 @@
     </row>
     <row r="21" spans="1:25" s="15" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B21" s="13">
         <v>0.01</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D21" s="13">
         <v>0.69</v>
@@ -11774,13 +11847,13 @@
         <v>0.49</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G21" s="15">
         <v>0.02</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I21" s="15">
         <v>0.55000000000000004</v>
@@ -11789,13 +11862,13 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L21" s="29">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N21" s="29">
         <v>-2.9</v>
@@ -11804,13 +11877,13 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="15">
         <v>-0.03</v>
       </c>
       <c r="R21" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S21" s="15">
         <v>-1.04</v>
@@ -11819,13 +11892,13 @@
         <v>0.3</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V21" s="15">
         <v>-0.23</v>
       </c>
       <c r="W21" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X21" s="15">
         <v>-1.4</v>
@@ -11895,7 +11968,7 @@
         <v>73.63</v>
       </c>
       <c r="W23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
@@ -11906,10 +11979,10 @@
         <v>0.99</v>
       </c>
       <c r="C24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>8</v>
@@ -11918,10 +11991,10 @@
         <v>0.98</v>
       </c>
       <c r="H24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>8</v>
@@ -11930,10 +12003,10 @@
         <v>0.72</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P24" s="5" t="s">
         <v>8</v>
@@ -11942,10 +12015,10 @@
         <v>0.26</v>
       </c>
       <c r="R24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U24" s="5" t="s">
         <v>8</v>
@@ -11954,10 +12027,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
@@ -12006,7 +12079,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="8"/>
@@ -12017,7 +12090,7 @@
         <v>11</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="8"/>
@@ -12028,7 +12101,7 @@
         <v>11</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O26" s="9"/>
       <c r="P26" s="8"/>
@@ -12039,7 +12112,7 @@
         <v>11</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T26" s="9"/>
       <c r="U26" s="8"/>
@@ -12050,7 +12123,7 @@
         <v>11</v>
       </c>
       <c r="X26" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y26" s="9"/>
     </row>
@@ -12118,7 +12191,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -12130,7 +12203,7 @@
         <v>106</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -12142,7 +12215,7 @@
         <v>22</v>
       </c>
       <c r="K28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -12154,7 +12227,7 @@
         <v>41</v>
       </c>
       <c r="P28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q28">
         <v>0.04</v>
@@ -12166,7 +12239,7 @@
         <v>45</v>
       </c>
       <c r="U28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -12283,7 +12356,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" s="32" t="s">
         <v>18</v>
@@ -12295,7 +12368,7 @@
         <v>10</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I31" s="32" t="s">
         <v>18</v>
@@ -12307,7 +12380,7 @@
         <v>10</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N31" s="32" t="s">
         <v>18</v>
@@ -12319,7 +12392,7 @@
         <v>10</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S31" s="32" t="s">
         <v>18</v>
@@ -12331,7 +12404,7 @@
         <v>10</v>
       </c>
       <c r="W31" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X31" s="32" t="s">
         <v>18</v>
@@ -12342,13 +12415,13 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B32" s="7">
         <v>0.04</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D32" s="7">
         <v>0.21</v>
@@ -12357,13 +12430,13 @@
         <v>0.83</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G32" s="7">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I32" s="7">
         <v>-0.67</v>
@@ -12372,13 +12445,13 @@
         <v>0.5</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L32" s="26">
         <v>-0.06</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N32" s="26">
         <v>-0.84</v>
@@ -12387,13 +12460,13 @@
         <v>0.4</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q32" s="7">
         <v>0.08</v>
       </c>
       <c r="R32" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S32" s="7">
         <v>0.48</v>
@@ -12402,13 +12475,13 @@
         <v>0.63</v>
       </c>
       <c r="U32" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V32" s="7">
         <v>-0.14000000000000001</v>
       </c>
       <c r="W32" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="X32" s="7">
         <v>-0.43</v>
@@ -12419,13 +12492,13 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B33" s="24">
         <v>-0.09</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D33" s="24">
         <v>-0.48</v>
@@ -12434,13 +12507,13 @@
         <v>0.63</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G33" s="20">
         <v>-0.15</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I33" s="20">
         <v>-1.83</v>
@@ -12449,13 +12522,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L33" s="24">
         <v>0.02</v>
       </c>
       <c r="M33" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N33" s="24">
         <v>0.19</v>
@@ -12464,13 +12537,13 @@
         <v>0.85</v>
       </c>
       <c r="P33" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q33" s="24">
         <v>0.08</v>
       </c>
       <c r="R33" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S33" s="24">
         <v>0.51</v>
@@ -12479,13 +12552,13 @@
         <v>0.61</v>
       </c>
       <c r="U33" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V33" s="20">
         <v>0.32</v>
       </c>
       <c r="W33" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="X33" s="20">
         <v>1.24</v>
@@ -12496,13 +12569,13 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B34" s="24">
         <v>-0.03</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D34" s="24">
         <v>-0.18</v>
@@ -12511,13 +12584,13 @@
         <v>0.86</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G34" s="24">
         <v>-0.06</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I34" s="24">
         <v>-0.67</v>
@@ -12526,13 +12599,13 @@
         <v>0.5</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L34" s="24">
         <v>-0.02</v>
       </c>
       <c r="M34" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N34" s="24">
         <v>-0.3</v>
@@ -12541,13 +12614,13 @@
         <v>0.76</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q34" s="24">
         <v>0.03</v>
       </c>
       <c r="R34" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S34" s="24">
         <v>0.21</v>
@@ -12556,13 +12629,13 @@
         <v>0.83</v>
       </c>
       <c r="U34" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V34" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W34" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X34" s="24">
         <v>0.28000000000000003</v>
@@ -12573,13 +12646,13 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B35" s="20">
         <v>-0.27</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D35" s="20">
         <v>-1.73</v>
@@ -12588,13 +12661,13 @@
         <v>0.08</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G35" s="24">
         <v>-0.06</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I35" s="24">
         <v>-0.68</v>
@@ -12603,13 +12676,13 @@
         <v>0.5</v>
       </c>
       <c r="K35" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L35" s="24">
         <v>0.05</v>
       </c>
       <c r="M35" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N35" s="24">
         <v>0.56000000000000005</v>
@@ -12618,13 +12691,13 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="P35" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q35" s="24">
         <v>0.01</v>
       </c>
       <c r="R35" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S35" s="24">
         <v>0.09</v>
@@ -12633,13 +12706,13 @@
         <v>0.93</v>
       </c>
       <c r="U35" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V35" s="24">
         <v>-0.13</v>
       </c>
       <c r="W35" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X35" s="24">
         <v>-0.59</v>
@@ -12650,13 +12723,13 @@
     </row>
     <row r="36" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B36" s="24">
         <v>0.12</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D36" s="24">
         <v>0.44</v>
@@ -12665,13 +12738,13 @@
         <v>0.66</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G36" s="20">
         <v>0.03</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I36" s="20">
         <v>0.28999999999999998</v>
@@ -12680,13 +12753,13 @@
         <v>0.77</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L36" s="24">
         <v>0.23</v>
       </c>
       <c r="M36" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N36" s="24">
         <v>1.41</v>
@@ -12695,13 +12768,13 @@
         <v>0.16</v>
       </c>
       <c r="P36" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q36" s="24">
         <v>0.03</v>
       </c>
       <c r="R36" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S36" s="24">
         <v>0.2</v>
@@ -12710,13 +12783,13 @@
         <v>0.84</v>
       </c>
       <c r="U36" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V36" s="24">
         <v>-0.14000000000000001</v>
       </c>
       <c r="W36" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X36" s="24">
         <v>-0.4</v>
@@ -12727,13 +12800,13 @@
     </row>
     <row r="37" spans="1:25" s="15" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B37" s="15">
         <v>0</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D37" s="15">
         <v>0.26</v>
@@ -12742,13 +12815,13 @@
         <v>0.8</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G37" s="15">
         <v>0.01</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I37" s="15">
         <v>0.46</v>
@@ -12757,13 +12830,13 @@
         <v>0.65</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L37" s="15">
         <v>0</v>
       </c>
       <c r="M37" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N37" s="15">
         <v>-0.03</v>
@@ -12772,13 +12845,13 @@
         <v>0.97</v>
       </c>
       <c r="P37" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q37" s="15">
         <v>0.01</v>
       </c>
       <c r="R37" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="S37" s="15">
         <v>0.51</v>
@@ -12787,13 +12860,13 @@
         <v>0.61</v>
       </c>
       <c r="U37" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V37" s="15">
         <v>0.01</v>
       </c>
       <c r="W37" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X37" s="15">
         <v>0.12</v>
@@ -12809,12 +12882,1755 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4EEFA2-8A1F-044A-B469-72386FBE70C0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AN30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AO28" sqref="AO28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2723.54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>1380.98</v>
+      </c>
+      <c r="K7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <v>2891.6</v>
+      </c>
+      <c r="S7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z7">
+        <v>2190.73</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH7">
+        <v>163.13999999999999</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="R8" s="4">
+        <v>4.45</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="T8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>2.64</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C11">
+        <v>0.76</v>
+      </c>
+      <c r="D11" s="5">
+        <v>50</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11">
+        <v>0.04</v>
+      </c>
+      <c r="K11">
+        <v>0.21</v>
+      </c>
+      <c r="L11">
+        <v>44</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>13</v>
+      </c>
+      <c r="R11">
+        <v>0.73</v>
+      </c>
+      <c r="S11">
+        <v>0.85</v>
+      </c>
+      <c r="T11">
+        <v>44</v>
+      </c>
+      <c r="U11" s="4"/>
+      <c r="Y11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z11">
+        <v>0.1</v>
+      </c>
+      <c r="AA11">
+        <v>0.32</v>
+      </c>
+      <c r="AB11">
+        <v>61</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH11">
+        <v>0.03</v>
+      </c>
+      <c r="AI11">
+        <v>0.19</v>
+      </c>
+      <c r="AJ11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.01</v>
+      </c>
+      <c r="D12">
+        <v>106</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>0.04</v>
+      </c>
+      <c r="K12">
+        <v>0.21</v>
+      </c>
+      <c r="L12">
+        <v>22</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>41</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA12">
+        <v>0.26</v>
+      </c>
+      <c r="AB12">
+        <v>45</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0.01</v>
+      </c>
+      <c r="AJ12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0.16</v>
+      </c>
+      <c r="C13">
+        <v>0.4</v>
+      </c>
+      <c r="D13">
+        <v>483</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <v>0.13</v>
+      </c>
+      <c r="K13">
+        <v>0.36</v>
+      </c>
+      <c r="L13">
+        <v>493</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13">
+        <v>0.27</v>
+      </c>
+      <c r="S13">
+        <v>0.52</v>
+      </c>
+      <c r="T13">
+        <v>483</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z13">
+        <v>0.16</v>
+      </c>
+      <c r="AA13">
+        <v>0.39</v>
+      </c>
+      <c r="AB13">
+        <v>674</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH13">
+        <v>0.06</v>
+      </c>
+      <c r="AI13">
+        <v>0.23</v>
+      </c>
+      <c r="AJ13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN15" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>-0.12</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D16">
+        <v>-1.02</v>
+      </c>
+      <c r="E16">
+        <v>0.31</v>
+      </c>
+      <c r="F16">
+        <v>426</v>
+      </c>
+      <c r="G16">
+        <v>101</v>
+      </c>
+      <c r="H16" s="5">
+        <v>40</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="28">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="28">
+        <v>-0.4</v>
+      </c>
+      <c r="M16" s="28">
+        <v>0.69</v>
+      </c>
+      <c r="N16" s="28">
+        <v>435</v>
+      </c>
+      <c r="O16" s="28">
+        <v>18</v>
+      </c>
+      <c r="P16" s="28">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="T16" s="4">
+        <v>2.12</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="V16" s="4">
+        <v>422</v>
+      </c>
+      <c r="W16" s="4">
+        <v>36</v>
+      </c>
+      <c r="X16" s="4">
+        <v>37</v>
+      </c>
+      <c r="Y16" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="AA16" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>582</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>37</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>48</v>
+      </c>
+      <c r="AG16" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH16" s="28">
+        <v>0.06</v>
+      </c>
+      <c r="AI16" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="AJ16" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="AK16" s="28">
+        <v>0.49</v>
+      </c>
+      <c r="AL16" s="28">
+        <v>92</v>
+      </c>
+      <c r="AM16" s="28">
+        <v>9</v>
+      </c>
+      <c r="AN16" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B17" s="13">
+        <v>-0.06</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0.62</v>
+      </c>
+      <c r="F17" s="15">
+        <v>57</v>
+      </c>
+      <c r="G17" s="15">
+        <v>11</v>
+      </c>
+      <c r="H17" s="13">
+        <v>16</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="L17" s="13">
+        <v>0.79</v>
+      </c>
+      <c r="M17" s="13">
+        <v>0.43</v>
+      </c>
+      <c r="N17" s="13">
+        <v>58</v>
+      </c>
+      <c r="O17" s="15">
+        <v>10</v>
+      </c>
+      <c r="P17" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="R17" s="29">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="S17" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="T17" s="29">
+        <v>-2.11</v>
+      </c>
+      <c r="U17" s="29">
+        <v>0.04</v>
+      </c>
+      <c r="V17" s="29">
+        <v>61</v>
+      </c>
+      <c r="W17" s="29">
+        <v>11</v>
+      </c>
+      <c r="X17" s="29">
+        <v>11</v>
+      </c>
+      <c r="Y17" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z17" s="13">
+        <v>-0.21</v>
+      </c>
+      <c r="AA17" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB17" s="13">
+        <v>-1.62</v>
+      </c>
+      <c r="AC17" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AD17" s="13">
+        <v>92</v>
+      </c>
+      <c r="AE17" s="13">
+        <v>16</v>
+      </c>
+      <c r="AF17" s="13">
+        <v>16</v>
+      </c>
+      <c r="AG17" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="AH17" s="13">
+        <v>-0.42</v>
+      </c>
+      <c r="AI17" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="AJ17" s="13">
+        <v>0.42</v>
+      </c>
+      <c r="AK17" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="AL17" s="13">
+        <v>3</v>
+      </c>
+      <c r="AM17" s="13">
+        <v>2</v>
+      </c>
+      <c r="AN17" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>3819.02</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>915.16</v>
+      </c>
+      <c r="K19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19">
+        <v>1536.77</v>
+      </c>
+      <c r="S19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z19">
+        <v>1074.8900000000001</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH19">
+        <v>77.56</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1.32</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R20">
+        <v>1.92</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH20">
+        <v>0.23</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="9"/>
+      <c r="AN22" s="9"/>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>0.01</v>
+      </c>
+      <c r="C23">
+        <v>0.12</v>
+      </c>
+      <c r="D23" s="5">
+        <v>50</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23">
+        <v>0.01</v>
+      </c>
+      <c r="K23" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L23">
+        <v>44</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>13</v>
+      </c>
+      <c r="R23">
+        <v>0.04</v>
+      </c>
+      <c r="S23">
+        <v>0.2</v>
+      </c>
+      <c r="T23">
+        <v>44</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z23">
+        <v>0.03</v>
+      </c>
+      <c r="AA23">
+        <v>0.18</v>
+      </c>
+      <c r="AB23">
+        <v>61</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AJ23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>0.36</v>
+      </c>
+      <c r="C24">
+        <v>0.6</v>
+      </c>
+      <c r="D24">
+        <v>106</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>22</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>14</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>41</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z24">
+        <v>0.05</v>
+      </c>
+      <c r="AA24">
+        <v>0.23</v>
+      </c>
+      <c r="AB24">
+        <v>45</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0.05</v>
+      </c>
+      <c r="AJ24">
+        <v>10</v>
+      </c>
+      <c r="AK24" s="4"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>0.4</v>
+      </c>
+      <c r="C25">
+        <v>0.63</v>
+      </c>
+      <c r="D25">
+        <v>483</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25">
+        <v>0.09</v>
+      </c>
+      <c r="K25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L25">
+        <v>493</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>15</v>
+      </c>
+      <c r="R25">
+        <v>0.09</v>
+      </c>
+      <c r="S25">
+        <v>0.3</v>
+      </c>
+      <c r="T25">
+        <v>483</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z25">
+        <v>0.03</v>
+      </c>
+      <c r="AA25">
+        <v>0.19</v>
+      </c>
+      <c r="AB25">
+        <v>674</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0.01</v>
+      </c>
+      <c r="AJ25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="U27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="V27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="X27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN27" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="7">
+        <v>-0.15</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="D28" s="7">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F28">
+        <v>426</v>
+      </c>
+      <c r="G28">
+        <v>101</v>
+      </c>
+      <c r="H28" s="5">
+        <v>40</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="26">
+        <v>-0.03</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="L28" s="26">
+        <v>-0.98</v>
+      </c>
+      <c r="M28" s="26">
+        <v>0.33</v>
+      </c>
+      <c r="N28" s="28">
+        <v>435</v>
+      </c>
+      <c r="O28" s="28">
+        <v>18</v>
+      </c>
+      <c r="P28" s="28">
+        <v>36</v>
+      </c>
+      <c r="Q28" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0.999</v>
+      </c>
+      <c r="V28">
+        <v>422</v>
+      </c>
+      <c r="W28" s="5">
+        <v>36</v>
+      </c>
+      <c r="X28" s="5">
+        <v>37</v>
+      </c>
+      <c r="Y28" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z28" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="AA28" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB28" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AC28" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AD28" s="5">
+        <v>582</v>
+      </c>
+      <c r="AE28" s="5">
+        <v>37</v>
+      </c>
+      <c r="AF28" s="5">
+        <v>48</v>
+      </c>
+      <c r="AG28" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH28" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="AI28" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ28" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AK28" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="AL28" s="28">
+        <v>92</v>
+      </c>
+      <c r="AM28" s="28">
+        <v>9</v>
+      </c>
+      <c r="AN28" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D29" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="E29" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="F29" s="15">
+        <v>57</v>
+      </c>
+      <c r="G29" s="15">
+        <v>11</v>
+      </c>
+      <c r="H29" s="13">
+        <v>16</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="J29" s="13">
+        <v>-0.08</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="L29" s="13">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="M29" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="N29" s="13">
+        <v>58</v>
+      </c>
+      <c r="O29" s="15">
+        <v>10</v>
+      </c>
+      <c r="P29" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="R29" s="15">
+        <v>-0.11</v>
+      </c>
+      <c r="S29" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="T29" s="15">
+        <v>-1.38</v>
+      </c>
+      <c r="U29" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="V29" s="15">
+        <v>61</v>
+      </c>
+      <c r="W29" s="13">
+        <v>11</v>
+      </c>
+      <c r="X29" s="13">
+        <v>11</v>
+      </c>
+      <c r="Y29" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z29" s="15">
+        <v>-0.03</v>
+      </c>
+      <c r="AA29" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB29" s="15">
+        <v>-0.38</v>
+      </c>
+      <c r="AC29" s="15">
+        <v>0.71</v>
+      </c>
+      <c r="AD29" s="13">
+        <v>92</v>
+      </c>
+      <c r="AE29" s="13">
+        <v>16</v>
+      </c>
+      <c r="AF29" s="13">
+        <v>16</v>
+      </c>
+      <c r="AG29" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="AH29" s="15">
+        <v>-0.09</v>
+      </c>
+      <c r="AI29" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="AJ29" s="15">
+        <v>-0.48</v>
+      </c>
+      <c r="AK29" s="15">
+        <v>0.63</v>
+      </c>
+      <c r="AL29" s="13">
+        <v>3</v>
+      </c>
+      <c r="AM29" s="13">
+        <v>2</v>
+      </c>
+      <c r="AN29" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="Q30" s="28"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>